--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Desktop\MATH3205_MPDPTW_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1664816-54BC-4484-B276-DE1550C5DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741FF3CF-E3E1-4D2E-A74F-CB6FD07E7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Col Gen vs Multi Thread" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="185">
   <si>
     <t>Instance</t>
   </si>
@@ -587,6 +588,15 @@
   <si>
     <t>Col Gen</t>
   </si>
+  <si>
+    <t>Total Solved</t>
+  </si>
+  <si>
+    <t>Average By All</t>
+  </si>
+  <si>
+    <t>Multi Thread</t>
+  </si>
 </sst>
 </file>
 
@@ -609,7 +619,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -657,11 +667,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -680,6 +710,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120FBBEE-5035-451F-8043-D98BBCB1ED6E}">
   <dimension ref="B2:AP123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -16200,14 +16238,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF0B8E3-04FC-42F8-B8DA-99369FD3F642}">
-  <dimension ref="C2:S27"/>
+  <dimension ref="C2:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.90625" bestFit="1" customWidth="1"/>
@@ -16977,7 +17016,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="4" t="s">
         <v>164</v>
       </c>
@@ -17030,7 +17069,7 @@
         <v>3.8000000000000006E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="4" t="s">
         <v>165</v>
       </c>
@@ -17083,7 +17122,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="4" t="s">
         <v>166</v>
       </c>
@@ -17136,7 +17175,7 @@
         <v>0.36600000000000005</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C20" s="4" t="s">
         <v>167</v>
       </c>
@@ -17189,7 +17228,7 @@
         <v>0.88800000000000012</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C21" s="4" t="s">
         <v>168</v>
       </c>
@@ -17242,7 +17281,7 @@
         <v>12.492000000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="4" t="s">
         <v>169</v>
       </c>
@@ -17295,7 +17334,7 @@
         <v>77.067999999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C23" s="4" t="s">
         <v>170</v>
       </c>
@@ -17348,7 +17387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="4" t="s">
         <v>171</v>
       </c>
@@ -17401,7 +17440,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="4" t="s">
         <v>172</v>
       </c>
@@ -17454,7 +17493,7 @@
         <v>0.34800000000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="4" t="s">
         <v>173</v>
       </c>
@@ -17507,57 +17546,986 @@
         <v>2.9059999999999997</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C27" s="4" t="s">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C27" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
         <v>57.668000000000006</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
         <v>55.227999999999994</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
         <v>47.696000000000005</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="10">
         <v>5</v>
       </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
+      <c r="Q27" s="10">
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
         <v>128.024</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="10">
         <v>60.019999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C28" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="7">
+        <f>SUM(D4:D27)</f>
+        <v>24</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="7">
+        <f>SUM(H4:H27)</f>
+        <v>40</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="7">
+        <f>SUM(L4:L27)</f>
+        <v>62</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="7">
+        <f>SUM(P4:P27)</f>
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C29" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7">
+        <f>AVERAGE(E4:E27)</f>
+        <v>28.061250000000001</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" ref="F29:S29" si="0">AVERAGE(F4:F27)</f>
+        <v>217.79712500000002</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>85.436374999999998</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="0"/>
+        <v>22.264666666666667</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="0"/>
+        <v>328.25977272727272</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="0"/>
+        <v>224.73154545454551</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="0"/>
+        <v>15.341916666666664</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="0"/>
+        <v>117.61646666666667</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="0"/>
+        <v>106.74566666666668</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <f t="shared" si="0"/>
+        <v>44.211847826086967</v>
+      </c>
+      <c r="S29" s="7">
+        <f t="shared" si="0"/>
+        <v>22.31410869565217</v>
+      </c>
+      <c r="T29" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1392-DE26-414E-B79B-3A7FB0BD29BA}">
+  <dimension ref="B2:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>15.06</v>
+      </c>
+      <c r="E4" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>21.54</v>
+      </c>
+      <c r="H4">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>11.06</v>
+      </c>
+      <c r="E5" s="4">
+        <v>21.58</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>13.76</v>
+      </c>
+      <c r="H5">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5.09</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13.88</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.24</v>
+      </c>
+      <c r="H6">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6.26</v>
+      </c>
+      <c r="E7" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.58</v>
+      </c>
+      <c r="H7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>113.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>251.76</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>145.09</v>
+      </c>
+      <c r="H8">
+        <v>143.84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3135.85</v>
+      </c>
+      <c r="H9">
+        <v>843.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>123.9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>230.77</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>194.13</v>
+      </c>
+      <c r="H10">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>632.54999999999995</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1166.6500000000001</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1147.6300000000001</v>
+      </c>
+      <c r="H11">
+        <v>485.64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>450.38</v>
+      </c>
+      <c r="E12" s="4">
+        <v>791.43</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>836.67</v>
+      </c>
+      <c r="H12">
+        <v>318.62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.44</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.44</v>
+      </c>
+      <c r="H13">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E14" s="4">
+        <v>62.44</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.72</v>
+      </c>
+      <c r="H14">
+        <v>49.66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3.68</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10.51</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.68</v>
+      </c>
+      <c r="H15">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2.25</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15.06</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.27</v>
+      </c>
+      <c r="H16">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>6.6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.7</v>
+      </c>
+      <c r="H17">
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1.04</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.03</v>
+      </c>
+      <c r="H18">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>7.42</v>
+      </c>
+      <c r="E19" s="4">
+        <v>19.38</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.6</v>
+      </c>
+      <c r="H19">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>18.37</v>
+      </c>
+      <c r="E20" s="4">
+        <v>41.18</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.37</v>
+      </c>
+      <c r="H20">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>15.92</v>
+      </c>
+      <c r="E21" s="4">
+        <v>32.35</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.64</v>
+      </c>
+      <c r="H21">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12.86</v>
+      </c>
+      <c r="E22" s="4">
+        <v>30.38</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.3</v>
+      </c>
+      <c r="H22">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>7.89</v>
+      </c>
+      <c r="E23" s="4">
+        <v>18.05</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.77</v>
+      </c>
+      <c r="H23">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>53.15</v>
+      </c>
+      <c r="E24" s="4">
+        <v>114.16</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>58.31</v>
+      </c>
+      <c r="H24">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>113.64</v>
+      </c>
+      <c r="E25" s="4">
+        <v>218.54</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>305.44</v>
+      </c>
+      <c r="H25">
+        <v>100.82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>23.23</v>
+      </c>
+      <c r="E26" s="4">
+        <v>59.52</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25.11</v>
+      </c>
+      <c r="H26">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>145.49</v>
+      </c>
+      <c r="E27" s="4">
+        <v>329.67</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>154.69</v>
+      </c>
+      <c r="H27">
+        <v>101.22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>49.83</v>
+      </c>
+      <c r="E28" s="4">
+        <v>111.73</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>62.45</v>
+      </c>
+      <c r="H28">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1251.8900000000001</v>
+      </c>
+      <c r="H29">
+        <v>1554.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3.48</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.42</v>
+      </c>
+      <c r="H30">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>4.42</v>
+      </c>
+      <c r="E31" s="4">
+        <v>9.74</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.72</v>
+      </c>
+      <c r="H31">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>89.35</v>
+      </c>
+      <c r="E32" s="4">
+        <v>187.07</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>119.82</v>
+      </c>
+      <c r="H32">
+        <v>132.19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>20.02</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43.25</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>26.07</v>
+      </c>
+      <c r="H33">
+        <v>30.49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>23.19</v>
+      </c>
+      <c r="E34" s="4">
+        <v>53.42</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.13</v>
+      </c>
+      <c r="H34">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>87.83</v>
+      </c>
+      <c r="E35" s="4">
+        <v>188.59</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>106.94</v>
+      </c>
+      <c r="H35">
+        <v>164.88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="E36" s="4">
+        <v>167.79</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>105.14</v>
+      </c>
+      <c r="H36">
+        <v>106.49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Desktop\MATH3205_MPDPTW_Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc2057430e44be2f/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741FF3CF-E3E1-4D2E-A74F-CB6FD07E7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{741FF3CF-E3E1-4D2E-A74F-CB6FD07E7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD989843-556C-4681-A26D-A771E1C4270E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="200">
   <si>
     <t>Instance</t>
   </si>
@@ -596,19 +596,75 @@
   </si>
   <si>
     <t>Multi Thread</t>
+  </si>
+  <si>
+    <t>Columns Generated</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>l_4_100</t>
+  </si>
+  <si>
+    <t>l_4_50</t>
+  </si>
+  <si>
+    <t>n_4_100</t>
+  </si>
+  <si>
+    <t>w_4_25</t>
+  </si>
+  <si>
+    <t>w_4_35</t>
+  </si>
+  <si>
+    <t>w_4_50</t>
+  </si>
+  <si>
+    <t>w_8_100</t>
+  </si>
+  <si>
+    <t>w_8_50</t>
+  </si>
+  <si>
+    <t>w_4_100</t>
+  </si>
+  <si>
+    <t>Change (%)</t>
+  </si>
+  <si>
+    <t>Col Gen Time(s)</t>
+  </si>
+  <si>
+    <t>Multi-Thread Time (s)</t>
+  </si>
+  <si>
+    <t>Multi-Thread Time(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -619,7 +675,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -687,11 +743,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -718,6 +789,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,6 +815,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,36 +1140,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120FBBEE-5035-451F-8043-D98BBCB1ED6E}">
   <dimension ref="B2:AP123"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="AA1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.9296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="40.46484375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.45">
       <c r="H2" t="s">
         <v>144</v>
       </c>
@@ -1106,7 +1192,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="2:42" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:42" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -1481,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1606,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1731,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1856,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -1981,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -2106,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -2231,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -2356,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -2606,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -2731,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -2856,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -2981,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -3106,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -3231,7 +3317,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -3356,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -3481,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -3606,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -3731,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -3856,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -3981,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -4106,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -4231,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>48</v>
       </c>
@@ -4356,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -4481,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>50</v>
       </c>
@@ -4606,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>51</v>
       </c>
@@ -4731,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>52</v>
       </c>
@@ -4856,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>53</v>
       </c>
@@ -4981,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -5106,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>55</v>
       </c>
@@ -5231,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>56</v>
       </c>
@@ -5356,7 +5442,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>57</v>
       </c>
@@ -5481,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>58</v>
       </c>
@@ -5606,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>59</v>
       </c>
@@ -5731,7 +5817,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>60</v>
       </c>
@@ -5856,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>61</v>
       </c>
@@ -5981,7 +6067,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>62</v>
       </c>
@@ -6106,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>63</v>
       </c>
@@ -6231,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>64</v>
       </c>
@@ -6356,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>65</v>
       </c>
@@ -6481,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>66</v>
       </c>
@@ -6606,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>67</v>
       </c>
@@ -6731,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>68</v>
       </c>
@@ -6856,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>69</v>
       </c>
@@ -6981,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>70</v>
       </c>
@@ -7106,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>71</v>
       </c>
@@ -7231,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>72</v>
       </c>
@@ -7356,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>73</v>
       </c>
@@ -7481,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>74</v>
       </c>
@@ -7606,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>75</v>
       </c>
@@ -7731,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>76</v>
       </c>
@@ -7856,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>77</v>
       </c>
@@ -7981,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>78</v>
       </c>
@@ -8106,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>79</v>
       </c>
@@ -8231,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>80</v>
       </c>
@@ -8356,7 +8442,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="61" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>81</v>
       </c>
@@ -8481,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>82</v>
       </c>
@@ -8606,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>83</v>
       </c>
@@ -8731,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>84</v>
       </c>
@@ -8856,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>85</v>
       </c>
@@ -8981,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>86</v>
       </c>
@@ -9106,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>87</v>
       </c>
@@ -9231,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>88</v>
       </c>
@@ -9356,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>89</v>
       </c>
@@ -9481,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>90</v>
       </c>
@@ -9606,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>91</v>
       </c>
@@ -9731,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>92</v>
       </c>
@@ -9856,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>93</v>
       </c>
@@ -9981,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>94</v>
       </c>
@@ -10106,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>95</v>
       </c>
@@ -10231,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>96</v>
       </c>
@@ -10356,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>97</v>
       </c>
@@ -10481,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -10606,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>99</v>
       </c>
@@ -10731,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>100</v>
       </c>
@@ -10856,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>101</v>
       </c>
@@ -10981,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>102</v>
       </c>
@@ -11106,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>103</v>
       </c>
@@ -11231,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>104</v>
       </c>
@@ -11356,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>105</v>
       </c>
@@ -11481,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>106</v>
       </c>
@@ -11606,7 +11692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>107</v>
       </c>
@@ -11731,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>108</v>
       </c>
@@ -11856,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>109</v>
       </c>
@@ -11981,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>110</v>
       </c>
@@ -12106,7 +12192,7 @@
         <v>-8.26</v>
       </c>
     </row>
-    <row r="91" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>111</v>
       </c>
@@ -12231,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>112</v>
       </c>
@@ -12356,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>113</v>
       </c>
@@ -12481,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>114</v>
       </c>
@@ -12606,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>115</v>
       </c>
@@ -12731,7 +12817,7 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="96" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>116</v>
       </c>
@@ -12856,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>117</v>
       </c>
@@ -12981,7 +13067,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="98" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>118</v>
       </c>
@@ -13106,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>119</v>
       </c>
@@ -13231,7 +13317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>120</v>
       </c>
@@ -13356,7 +13442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>121</v>
       </c>
@@ -13481,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>122</v>
       </c>
@@ -13606,7 +13692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>123</v>
       </c>
@@ -13731,7 +13817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>124</v>
       </c>
@@ -13856,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>125</v>
       </c>
@@ -13981,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>126</v>
       </c>
@@ -14106,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>127</v>
       </c>
@@ -14231,7 +14317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>128</v>
       </c>
@@ -14356,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>129</v>
       </c>
@@ -14481,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>130</v>
       </c>
@@ -14606,7 +14692,7 @@
         <v>-2.44</v>
       </c>
     </row>
-    <row r="111" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>131</v>
       </c>
@@ -14731,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>132</v>
       </c>
@@ -14856,7 +14942,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="113" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>133</v>
       </c>
@@ -14981,7 +15067,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="114" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>134</v>
       </c>
@@ -15106,7 +15192,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="115" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>135</v>
       </c>
@@ -15231,7 +15317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>136</v>
       </c>
@@ -15356,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>137</v>
       </c>
@@ -15481,7 +15567,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="118" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>138</v>
       </c>
@@ -15606,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>139</v>
       </c>
@@ -15731,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>140</v>
       </c>
@@ -15856,7 +15942,7 @@
         <v>-0.71</v>
       </c>
     </row>
-    <row r="121" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>141</v>
       </c>
@@ -15981,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>142</v>
       </c>
@@ -16106,7 +16192,7 @@
         <v>-0.82</v>
       </c>
     </row>
-    <row r="123" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>143</v>
       </c>
@@ -16244,19 +16330,19 @@
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>178</v>
@@ -16274,7 +16360,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -16327,7 +16413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C4" s="4" t="s">
         <v>151</v>
       </c>
@@ -16380,7 +16466,7 @@
         <v>0.54399999999999993</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C5" s="4" t="s">
         <v>152</v>
       </c>
@@ -16433,7 +16519,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C6" s="4" t="s">
         <v>153</v>
       </c>
@@ -16486,7 +16572,7 @@
         <v>7.855999999999999</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C7" s="4" t="s">
         <v>154</v>
       </c>
@@ -16539,7 +16625,7 @@
         <v>330.08249999999998</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C8" s="4" t="s">
         <v>155</v>
       </c>
@@ -16592,7 +16678,7 @@
         <v>0.24400000000000005</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C9" s="4" t="s">
         <v>156</v>
       </c>
@@ -16645,7 +16731,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C10" s="4" t="s">
         <v>157</v>
       </c>
@@ -16698,7 +16784,7 @@
         <v>1.5100000000000002</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C11" s="4" t="s">
         <v>158</v>
       </c>
@@ -16751,7 +16837,7 @@
         <v>10.036000000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C12" s="4" t="s">
         <v>159</v>
       </c>
@@ -16804,7 +16890,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C13" s="4" t="s">
         <v>160</v>
       </c>
@@ -16857,7 +16943,7 @@
         <v>4.6000000000000006E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C14" s="4" t="s">
         <v>161</v>
       </c>
@@ -16910,7 +16996,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C15" s="4" t="s">
         <v>162</v>
       </c>
@@ -16963,7 +17049,7 @@
         <v>6.5920000000000005</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C16" s="4" t="s">
         <v>163</v>
       </c>
@@ -17016,7 +17102,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C17" s="4" t="s">
         <v>164</v>
       </c>
@@ -17069,7 +17155,7 @@
         <v>3.8000000000000006E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C18" s="4" t="s">
         <v>165</v>
       </c>
@@ -17122,7 +17208,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C19" s="4" t="s">
         <v>166</v>
       </c>
@@ -17175,7 +17261,7 @@
         <v>0.36600000000000005</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C20" s="4" t="s">
         <v>167</v>
       </c>
@@ -17228,7 +17314,7 @@
         <v>0.88800000000000012</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C21" s="4" t="s">
         <v>168</v>
       </c>
@@ -17281,7 +17367,7 @@
         <v>12.492000000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C22" s="4" t="s">
         <v>169</v>
       </c>
@@ -17334,7 +17420,7 @@
         <v>77.067999999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C23" s="4" t="s">
         <v>170</v>
       </c>
@@ -17387,7 +17473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C24" s="4" t="s">
         <v>171</v>
       </c>
@@ -17440,7 +17526,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C25" s="4" t="s">
         <v>172</v>
       </c>
@@ -17493,7 +17579,7 @@
         <v>0.34800000000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C26" s="4" t="s">
         <v>173</v>
       </c>
@@ -17546,7 +17632,7 @@
         <v>2.9059999999999997</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C27" s="5" t="s">
         <v>174</v>
       </c>
@@ -17599,7 +17685,7 @@
         <v>60.019999999999996</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C28" s="9" t="s">
         <v>182</v>
       </c>
@@ -17657,7 +17743,7 @@
       </c>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C29" s="8" t="s">
         <v>183</v>
       </c>
@@ -17730,803 +17816,1055 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1392-DE26-414E-B79B-3A7FB0BD29BA}">
-  <dimension ref="B2:H36"/>
+  <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.265625" customWidth="1"/>
+    <col min="11" max="11" width="29.3984375" customWidth="1"/>
+    <col min="12" max="13" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.86328125" customWidth="1"/>
+    <col min="15" max="15" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="39" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="9.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>15.06</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="4">
         <v>31.3</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4">
-        <v>1</v>
+        <v>11.45</v>
       </c>
       <c r="G4">
-        <v>21.54</v>
-      </c>
-      <c r="H4">
-        <v>11.45</v>
+        <f>_xlfn.XLOOKUP(B4,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>835</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="14">
+        <v>610.15250000000003</v>
+      </c>
+      <c r="K4" s="14">
+        <v>261.05</v>
+      </c>
+      <c r="L4" s="16">
+        <f>ROUND(100*(K4-J4)/J4,2)</f>
+        <v>-57.22</v>
+      </c>
+      <c r="M4" s="14">
+        <v>9735.5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>11.06</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="4">
         <v>21.58</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5">
-        <v>1</v>
+        <v>12.73</v>
       </c>
       <c r="G5">
-        <v>13.76</v>
-      </c>
-      <c r="H5">
-        <v>12.73</v>
+        <f>_xlfn.XLOOKUP(B5,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>483</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="14">
+        <v>20.14</v>
+      </c>
+      <c r="K5" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" ref="L5:L11" si="0">ROUND(100*(K5-J5)/J5,2)</f>
+        <v>-48.86</v>
+      </c>
+      <c r="M5" s="14">
+        <v>629</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>5.09</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="4">
         <v>13.88</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
-        <v>1</v>
+        <v>9.68</v>
       </c>
       <c r="G6">
-        <v>5.24</v>
-      </c>
-      <c r="H6">
-        <v>9.68</v>
+        <f>_xlfn.XLOOKUP(B6,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>728</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="14">
+        <v>23.488</v>
+      </c>
+      <c r="K6" s="14">
+        <v>21.684000000000001</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
+        <v>-7.68</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2062.6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>6.26</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="4">
         <v>13.8</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
-        <v>1</v>
+        <v>7.34</v>
       </c>
       <c r="G7">
-        <v>6.58</v>
-      </c>
-      <c r="H7">
-        <v>7.34</v>
+        <f>_xlfn.XLOOKUP(B7,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>470</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="K7" s="14">
+        <v>3.63</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="0"/>
+        <v>24.74</v>
+      </c>
+      <c r="M7" s="14">
+        <v>416</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>113.5</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="4">
         <v>251.76</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
-        <v>1</v>
+        <v>143.84</v>
       </c>
       <c r="G8">
-        <v>145.09</v>
-      </c>
-      <c r="H8">
-        <v>143.84</v>
+        <f>_xlfn.XLOOKUP(B8,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>7332</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="14">
+        <v>28.268000000000001</v>
+      </c>
+      <c r="K8" s="14">
+        <v>11.332000000000001</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="0"/>
+        <v>-59.91</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1611.8</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>843.25</v>
       </c>
       <c r="G9">
-        <v>3135.85</v>
-      </c>
-      <c r="H9">
-        <v>843.25</v>
+        <f>_xlfn.XLOOKUP(B9,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>21802</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" s="14">
+        <v>166.72399999999999</v>
+      </c>
+      <c r="K9" s="14">
+        <v>60.605999999999987</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="0"/>
+        <v>-63.65</v>
+      </c>
+      <c r="M9" s="14">
+        <v>7853</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>123.9</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="4">
         <v>230.77</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
-        <v>1</v>
+        <v>96.1</v>
       </c>
       <c r="G10">
-        <v>194.13</v>
-      </c>
-      <c r="H10">
-        <v>96.1</v>
+        <f>_xlfn.XLOOKUP(B10,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>3041</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="14">
+        <v>128.024</v>
+      </c>
+      <c r="K10" s="14">
+        <v>96.861999999999995</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="0"/>
+        <v>-24.34</v>
+      </c>
+      <c r="M10" s="14">
+        <v>3953.2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>632.54999999999995</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="4">
         <v>1166.6500000000001</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11">
-        <v>1</v>
+        <v>485.64</v>
       </c>
       <c r="G11">
-        <v>1147.6300000000001</v>
-      </c>
-      <c r="H11">
-        <v>485.64</v>
+        <f>_xlfn.XLOOKUP(B11,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>18443</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="14">
+        <v>8.9699999999999989</v>
+      </c>
+      <c r="K11" s="14">
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="0"/>
+        <v>-28.26</v>
+      </c>
+      <c r="M11" s="14">
+        <v>445</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>450.38</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="4">
         <v>791.43</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
-        <v>1</v>
+        <v>318.62</v>
       </c>
       <c r="G12">
-        <v>836.67</v>
-      </c>
-      <c r="H12">
-        <v>318.62</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B12,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>10126</v>
+      </c>
+      <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>0.44</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="4">
         <v>6.13</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13">
-        <v>1</v>
+        <v>6.62</v>
       </c>
       <c r="G13">
-        <v>0.44</v>
-      </c>
-      <c r="H13">
-        <v>6.62</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B13,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>1052</v>
+      </c>
+      <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="4">
         <v>62.44</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="F14">
-        <v>1</v>
+        <v>49.66</v>
       </c>
       <c r="G14">
-        <v>21.72</v>
-      </c>
-      <c r="H14">
-        <v>49.66</v>
+        <f>_xlfn.XLOOKUP(B14,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>4452</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>3.68</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="4">
         <v>10.51</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="F15">
-        <v>1</v>
+        <v>11.04</v>
       </c>
       <c r="G15">
-        <v>3.68</v>
-      </c>
-      <c r="H15">
-        <v>11.04</v>
+        <f>_xlfn.XLOOKUP(B15,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>527</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" s="16">
+        <v>843.25</v>
+      </c>
+      <c r="K15" s="16">
+        <v>21802</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>2.25</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="4">
         <v>15.06</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16">
-        <v>1</v>
+        <v>17.18</v>
       </c>
       <c r="G16">
-        <v>2.27</v>
-      </c>
-      <c r="H16">
-        <v>17.18</v>
+        <f>_xlfn.XLOOKUP(B16,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>2323</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1554.7</v>
+      </c>
+      <c r="K16" s="16">
+        <v>66618</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>6.6</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="4">
         <v>23.3</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17">
-        <v>1</v>
+        <v>23.92</v>
       </c>
       <c r="G17">
-        <v>6.7</v>
-      </c>
-      <c r="H17">
-        <v>23.92</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B17,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>1959</v>
+      </c>
+      <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>1.04</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="4">
         <v>2.91</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18">
-        <v>1</v>
+        <v>3.63</v>
       </c>
       <c r="G18">
-        <v>1.03</v>
-      </c>
-      <c r="H18">
-        <v>3.63</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B18,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>416</v>
+      </c>
+      <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>7.42</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="4">
         <v>19.38</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="F19">
-        <v>1</v>
+        <v>9.73</v>
       </c>
       <c r="G19">
-        <v>7.6</v>
-      </c>
-      <c r="H19">
-        <v>9.73</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B19,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>1639</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>18.37</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="4">
         <v>41.18</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20">
-        <v>1</v>
+        <v>14.48</v>
       </c>
       <c r="G20">
-        <v>20.37</v>
-      </c>
-      <c r="H20">
-        <v>14.48</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B20,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>2807</v>
+      </c>
+      <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>15.92</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="4">
         <v>32.35</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21">
-        <v>1</v>
+        <v>13.22</v>
       </c>
       <c r="G21">
-        <v>23.64</v>
-      </c>
-      <c r="H21">
-        <v>13.22</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B21,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>1196</v>
+      </c>
+      <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>12.86</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="4">
         <v>30.38</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
       <c r="F22">
-        <v>1</v>
+        <v>10.93</v>
       </c>
       <c r="G22">
-        <v>18.3</v>
-      </c>
-      <c r="H22">
-        <v>10.93</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B22,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>1419</v>
+      </c>
+      <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>7.89</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="4">
         <v>18.05</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23">
-        <v>1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G23">
-        <v>8.77</v>
-      </c>
-      <c r="H23">
-        <v>8.3000000000000007</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B23,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>998</v>
+      </c>
+      <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>53.15</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="4">
         <v>114.16</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
       <c r="F24">
-        <v>1</v>
+        <v>43.31</v>
       </c>
       <c r="G24">
-        <v>58.31</v>
-      </c>
-      <c r="H24">
-        <v>43.31</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B24,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>5341</v>
+      </c>
+      <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>113.64</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="4">
         <v>218.54</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="F25">
-        <v>1</v>
+        <v>100.82</v>
       </c>
       <c r="G25">
-        <v>305.44</v>
-      </c>
-      <c r="H25">
-        <v>100.82</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B25,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>6605</v>
+      </c>
+      <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>23.23</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="4">
         <v>59.52</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
       <c r="F26">
-        <v>1</v>
+        <v>22.58</v>
       </c>
       <c r="G26">
-        <v>25.11</v>
-      </c>
-      <c r="H26">
-        <v>22.58</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B26,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>3387</v>
+      </c>
+      <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>145.49</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D27" s="4">
         <v>329.67</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27">
-        <v>1</v>
+        <v>101.22</v>
       </c>
       <c r="G27">
-        <v>154.69</v>
-      </c>
-      <c r="H27">
-        <v>101.22</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B27,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>18896</v>
+      </c>
+      <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>49.83</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="4">
         <v>111.73</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28">
-        <v>1</v>
+        <v>35.1</v>
       </c>
       <c r="G28">
-        <v>62.45</v>
-      </c>
-      <c r="H28">
-        <v>35.1</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B28,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>5036</v>
+      </c>
+      <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>40</v>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>1554.7</v>
       </c>
       <c r="G29">
-        <v>1251.8900000000001</v>
-      </c>
-      <c r="H29">
-        <v>1554.7</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B29,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>66618</v>
+      </c>
+      <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B30" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30">
-        <v>3.48</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D30" s="4">
         <v>8.1999999999999993</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
       <c r="F30">
-        <v>1</v>
+        <v>5.88</v>
       </c>
       <c r="G30">
-        <v>4.42</v>
-      </c>
-      <c r="H30">
-        <v>5.88</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B30,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>418</v>
+      </c>
+      <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>4.42</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="4">
         <v>9.74</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31">
-        <v>1</v>
+        <v>6.99</v>
       </c>
       <c r="G31">
-        <v>4.72</v>
-      </c>
-      <c r="H31">
-        <v>6.99</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B31,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>472</v>
+      </c>
+      <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>89.35</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="4">
         <v>187.07</v>
       </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
       <c r="F32">
-        <v>1</v>
+        <v>132.19</v>
       </c>
       <c r="G32">
-        <v>119.82</v>
-      </c>
-      <c r="H32">
-        <v>132.19</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B32,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>5099</v>
+      </c>
+      <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>20.02</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="4">
         <v>43.25</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33">
-        <v>1</v>
+        <v>30.49</v>
       </c>
       <c r="G33">
-        <v>26.07</v>
-      </c>
-      <c r="H33">
-        <v>30.49</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B33,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>1254</v>
+      </c>
+      <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34">
-        <v>23.19</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="4">
         <v>53.42</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
       <c r="F34">
-        <v>1</v>
+        <v>50.26</v>
       </c>
       <c r="G34">
-        <v>30.13</v>
-      </c>
-      <c r="H34">
-        <v>50.26</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B34,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>1797</v>
+      </c>
+      <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>87.83</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="4">
         <v>188.59</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
       <c r="F35">
-        <v>1</v>
+        <v>164.88</v>
       </c>
       <c r="G35">
-        <v>106.94</v>
-      </c>
-      <c r="H35">
-        <v>164.88</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B35,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>6819</v>
+      </c>
+      <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>79.709999999999994</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="4">
         <v>167.79</v>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
       <c r="F36">
-        <v>1</v>
+        <v>106.49</v>
       </c>
       <c r="G36">
-        <v>105.14</v>
-      </c>
-      <c r="H36">
-        <v>106.49</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B36,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
+        <v>4797</v>
+      </c>
+      <c r="H36" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc2057430e44be2f/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{741FF3CF-E3E1-4D2E-A74F-CB6FD07E7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD989843-556C-4681-A26D-A771E1C4270E}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{741FF3CF-E3E1-4D2E-A74F-CB6FD07E7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C03E317-FB29-4C51-87FF-FB16A4FEB97B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="199">
   <si>
     <t>Instance</t>
   </si>
@@ -599,9 +599,6 @@
   </si>
   <si>
     <t>Columns Generated</t>
-  </si>
-  <si>
-    <t>Group</t>
   </si>
   <si>
     <t>l_4_100</t>
@@ -762,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -789,11 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -17819,7 +17811,7 @@
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17968,19 +17960,19 @@
         <v>185</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>185</v>
       </c>
     </row>
@@ -18005,20 +17997,20 @@
         <v>835</v>
       </c>
       <c r="H4" s="12"/>
-      <c r="I4" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4">
         <v>610.15250000000003</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4">
         <v>261.05</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4">
         <f>ROUND(100*(K4-J4)/J4,2)</f>
         <v>-57.22</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4">
         <v>9735.5</v>
       </c>
     </row>
@@ -18043,20 +18035,20 @@
         <v>483</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5">
         <v>20.14</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5">
         <v>10.3</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5">
         <f t="shared" ref="L5:L11" si="0">ROUND(100*(K5-J5)/J5,2)</f>
         <v>-48.86</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5">
         <v>629</v>
       </c>
     </row>
@@ -18081,20 +18073,20 @@
         <v>728</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6">
         <v>23.488</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6">
         <v>21.684000000000001</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>-7.68</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6">
         <v>2062.6</v>
       </c>
     </row>
@@ -18119,20 +18111,20 @@
         <v>470</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7">
         <v>2.91</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7">
         <v>3.63</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7">
         <f t="shared" si="0"/>
         <v>24.74</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7">
         <v>416</v>
       </c>
     </row>
@@ -18157,20 +18149,20 @@
         <v>7332</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8">
         <v>28.268000000000001</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8">
         <v>11.332000000000001</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>-59.91</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8">
         <v>1611.8</v>
       </c>
     </row>
@@ -18195,20 +18187,20 @@
         <v>21802</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="I9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9">
         <v>166.72399999999999</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9">
         <v>60.605999999999987</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>-63.65</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9">
         <v>7853</v>
       </c>
     </row>
@@ -18233,20 +18225,20 @@
         <v>3041</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="I10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10">
         <v>128.024</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10">
         <v>96.861999999999995</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>-24.34</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10">
         <v>3953.2</v>
       </c>
     </row>
@@ -18271,20 +18263,20 @@
         <v>18443</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="I11" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11">
         <v>8.9699999999999989</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11">
         <v>6.4349999999999996</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>-28.26</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11">
         <v>445</v>
       </c>
     </row>
@@ -18353,13 +18345,13 @@
         <v>4452</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" s="18" t="s">
+      <c r="I14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>185</v>
       </c>
     </row>
@@ -18384,13 +18376,13 @@
         <v>527</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" s="16">
+      <c r="I15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15">
         <v>843.25</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15">
         <v>21802</v>
       </c>
     </row>
@@ -18415,17 +18407,17 @@
         <v>2323</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="I16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16">
         <v>1554.7</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16">
         <v>66618</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
@@ -18447,7 +18439,7 @@
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>107</v>
       </c>
@@ -18469,7 +18461,7 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>109</v>
       </c>
@@ -18490,9 +18482,8 @@
         <v>1639</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
         <v>110</v>
       </c>
@@ -18514,7 +18505,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>111</v>
       </c>
@@ -18536,7 +18527,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
         <v>112</v>
       </c>
@@ -18558,7 +18549,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
@@ -18580,7 +18571,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
         <v>114</v>
       </c>
@@ -18602,7 +18593,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
         <v>115</v>
       </c>
@@ -18624,7 +18615,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
         <v>116</v>
       </c>
@@ -18646,7 +18637,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
         <v>117</v>
       </c>
@@ -18668,7 +18659,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
         <v>118</v>
       </c>
@@ -18690,7 +18681,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
         <v>121</v>
       </c>
@@ -18712,7 +18703,7 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" s="4" t="s">
         <v>136</v>
       </c>
@@ -18734,7 +18725,7 @@
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
         <v>138</v>
       </c>
@@ -18756,7 +18747,7 @@
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
         <v>139</v>
       </c>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc2057430e44be2f/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{741FF3CF-E3E1-4D2E-A74F-CB6FD07E7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C03E317-FB29-4C51-87FF-FB16A4FEB97B}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{741FF3CF-E3E1-4D2E-A74F-CB6FD07E7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38DFCF0C-AB5F-4D16-AEE8-B4FE61335761}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="198">
   <si>
     <t>Instance</t>
   </si>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t>n_4_100</t>
-  </si>
-  <si>
-    <t>w_4_25</t>
   </si>
   <si>
     <t>w_4_35</t>
@@ -759,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -792,6 +789,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17811,7 +17812,7 @@
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17963,14 +17964,14 @@
       <c r="I3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="L3" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>185</v>
@@ -18000,10 +18001,10 @@
       <c r="I4" t="s">
         <v>186</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="17">
         <v>610.15250000000003</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="17">
         <v>261.05</v>
       </c>
       <c r="L4">
@@ -18038,14 +18039,14 @@
       <c r="I5" t="s">
         <v>187</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="17">
         <v>20.14</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="17">
         <v>10.3</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L11" si="0">ROUND(100*(K5-J5)/J5,2)</f>
+        <f t="shared" ref="L5:L6" si="0">ROUND(100*(K5-J5)/J5,2)</f>
         <v>-48.86</v>
       </c>
       <c r="M5">
@@ -18076,10 +18077,10 @@
       <c r="I6" t="s">
         <v>188</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="17">
         <v>23.488</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="17">
         <v>21.684000000000001</v>
       </c>
       <c r="L6">
@@ -18114,18 +18115,18 @@
       <c r="I7" t="s">
         <v>189</v>
       </c>
-      <c r="J7">
-        <v>2.91</v>
-      </c>
-      <c r="K7">
-        <v>3.63</v>
+      <c r="J7" s="17">
+        <v>28.268000000000001</v>
+      </c>
+      <c r="K7" s="17">
+        <v>11.332000000000001</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>24.74</v>
+        <f>ROUND(100*(K7-J7)/J7,2)</f>
+        <v>-59.91</v>
       </c>
       <c r="M7">
-        <v>416</v>
+        <v>1611.8</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
@@ -18152,18 +18153,18 @@
       <c r="I8" t="s">
         <v>190</v>
       </c>
-      <c r="J8">
-        <v>28.268000000000001</v>
-      </c>
-      <c r="K8">
-        <v>11.332000000000001</v>
+      <c r="J8" s="17">
+        <v>166.72399999999999</v>
+      </c>
+      <c r="K8" s="17">
+        <v>60.605999999999987</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>-59.91</v>
+        <f>ROUND(100*(K8-J8)/J8,2)</f>
+        <v>-63.65</v>
       </c>
       <c r="M8">
-        <v>1611.8</v>
+        <v>7853</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
@@ -18190,18 +18191,18 @@
       <c r="I9" t="s">
         <v>191</v>
       </c>
-      <c r="J9">
-        <v>166.72399999999999</v>
-      </c>
-      <c r="K9">
-        <v>60.605999999999987</v>
+      <c r="J9" s="17">
+        <v>128.024</v>
+      </c>
+      <c r="K9" s="17">
+        <v>96.861999999999995</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
-        <v>-63.65</v>
+        <f>ROUND(100*(K9-J9)/J9,2)</f>
+        <v>-24.34</v>
       </c>
       <c r="M9">
-        <v>7853</v>
+        <v>3953.2</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
@@ -18228,18 +18229,18 @@
       <c r="I10" t="s">
         <v>192</v>
       </c>
-      <c r="J10">
-        <v>128.024</v>
-      </c>
-      <c r="K10">
-        <v>96.861999999999995</v>
+      <c r="J10" s="17">
+        <v>8.9699999999999989</v>
+      </c>
+      <c r="K10" s="17">
+        <v>6.4349999999999996</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
-        <v>-24.34</v>
+        <f>ROUND(100*(K10-J10)/J10,2)</f>
+        <v>-28.26</v>
       </c>
       <c r="M10">
-        <v>3953.2</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
@@ -18263,22 +18264,6 @@
         <v>18443</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J11">
-        <v>8.9699999999999989</v>
-      </c>
-      <c r="K11">
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>-28.26</v>
-      </c>
-      <c r="M11">
-        <v>445</v>
-      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
@@ -18349,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>185</v>
@@ -18408,7 +18393,7 @@
       </c>
       <c r="H16" s="12"/>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J16">
         <v>1554.7</v>
@@ -18441,420 +18426,401 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>2.91</v>
+        <v>19.38</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>3.63</v>
+        <v>9.73</v>
       </c>
       <c r="G18">
         <f>_xlfn.XLOOKUP(B18,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>416</v>
+        <v>1639</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>19.38</v>
+        <v>41.18</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>9.73</v>
+        <v>14.48</v>
       </c>
       <c r="G19">
         <f>_xlfn.XLOOKUP(B19,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>1639</v>
+        <v>2807</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>41.18</v>
+        <v>32.35</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>14.48</v>
+        <v>13.22</v>
       </c>
       <c r="G20">
         <f>_xlfn.XLOOKUP(B20,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>2807</v>
+        <v>1196</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>32.35</v>
+        <v>30.38</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>13.22</v>
+        <v>10.93</v>
       </c>
       <c r="G21">
         <f>_xlfn.XLOOKUP(B21,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>1196</v>
+        <v>1419</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>30.38</v>
+        <v>18.05</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>10.93</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G22">
         <f>_xlfn.XLOOKUP(B22,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>1419</v>
+        <v>998</v>
       </c>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>18.05</v>
+        <v>114.16</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>8.3000000000000007</v>
+        <v>43.31</v>
       </c>
       <c r="G23">
         <f>_xlfn.XLOOKUP(B23,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>998</v>
+        <v>5341</v>
       </c>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>114.16</v>
+        <v>218.54</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>43.31</v>
+        <v>100.82</v>
       </c>
       <c r="G24">
         <f>_xlfn.XLOOKUP(B24,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>5341</v>
+        <v>6605</v>
       </c>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>218.54</v>
+        <v>59.52</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>100.82</v>
+        <v>22.58</v>
       </c>
       <c r="G25">
         <f>_xlfn.XLOOKUP(B25,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>6605</v>
+        <v>3387</v>
       </c>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>59.52</v>
+        <v>329.67</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>22.58</v>
+        <v>101.22</v>
       </c>
       <c r="G26">
         <f>_xlfn.XLOOKUP(B26,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>3387</v>
+        <v>18896</v>
       </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>329.67</v>
+        <v>111.73</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>101.22</v>
+        <v>35.1</v>
       </c>
       <c r="G27">
         <f>_xlfn.XLOOKUP(B27,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>18896</v>
+        <v>5036</v>
       </c>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>111.73</v>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>35.1</v>
+        <v>1554.7</v>
       </c>
       <c r="G28">
         <f>_xlfn.XLOOKUP(B28,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>5036</v>
+        <v>66618</v>
       </c>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8.1999999999999993</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1554.7</v>
+        <v>5.88</v>
       </c>
       <c r="G29">
         <f>_xlfn.XLOOKUP(B29,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>66618</v>
+        <v>418</v>
       </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>8.1999999999999993</v>
+        <v>9.74</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>5.88</v>
+        <v>6.99</v>
       </c>
       <c r="G30">
         <f>_xlfn.XLOOKUP(B30,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="4">
-        <v>9.74</v>
+        <v>187.07</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>6.99</v>
+        <v>132.19</v>
       </c>
       <c r="G31">
         <f>_xlfn.XLOOKUP(B31,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>472</v>
+        <v>5099</v>
       </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="4">
-        <v>187.07</v>
+        <v>43.25</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>132.19</v>
+        <v>30.49</v>
       </c>
       <c r="G32">
         <f>_xlfn.XLOOKUP(B32,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>5099</v>
+        <v>1254</v>
       </c>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>43.25</v>
+        <v>53.42</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>30.49</v>
+        <v>50.26</v>
       </c>
       <c r="G33">
         <f>_xlfn.XLOOKUP(B33,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>1254</v>
+        <v>1797</v>
       </c>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="4">
-        <v>53.42</v>
+        <v>188.59</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>50.26</v>
+        <v>164.88</v>
       </c>
       <c r="G34">
         <f>_xlfn.XLOOKUP(B34,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>1797</v>
+        <v>6819</v>
       </c>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="4">
-        <v>188.59</v>
+        <v>167.79</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>164.88</v>
+        <v>106.49</v>
       </c>
       <c r="G35">
         <f>_xlfn.XLOOKUP(B35,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>6819</v>
+        <v>4797</v>
       </c>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4">
-        <v>167.79</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>106.49</v>
-      </c>
-      <c r="G36">
-        <f>_xlfn.XLOOKUP(B36,'Raw Data'!B:B,'Raw Data'!AH:AH,"Not found",0)</f>
-        <v>4797</v>
-      </c>
       <c r="H36" s="12"/>
     </row>
   </sheetData>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Desktop\MATH3205_MPDPTW_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741FF3CF-E3E1-4D2E-A74F-CB6FD07E7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A5250-7A36-4F18-8B20-0D2E505F1100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
     <sheet name="Col Gen vs Multi Thread" sheetId="3" r:id="rId3"/>
+    <sheet name="Col Gen vs Multi Thread Av" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="186">
   <si>
     <t>Instance</t>
   </si>
@@ -597,6 +601,9 @@
   <si>
     <t>Multi Thread</t>
   </si>
+  <si>
+    <t>Avg Columns Generated</t>
+  </si>
 </sst>
 </file>
 
@@ -619,7 +626,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -687,11 +694,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -718,6 +749,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,6 +778,1073 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Raw Data"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Col &gt;= 400 Data"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="D2" t="str">
+            <v>Col Gen</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Multi Thread</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Instance</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Total Columns Generated</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Sts</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v xml:space="preserve">Work Units </v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Time_x000D_
+(s)</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Sts</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v xml:space="preserve">Work Units </v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>Time_x000D_
+(s)</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>Col Gen Improvement on Ours (%)</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>l_4_50_2</v>
+          </cell>
+          <cell r="C4">
+            <v>835</v>
+          </cell>
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+          <cell r="E4">
+            <v>15.06</v>
+          </cell>
+          <cell r="F4">
+            <v>31.3</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+          <cell r="H4">
+            <v>21.54</v>
+          </cell>
+          <cell r="I4">
+            <v>11.45</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>l_4_50_3</v>
+          </cell>
+          <cell r="C5">
+            <v>483</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+          <cell r="E5">
+            <v>11.06</v>
+          </cell>
+          <cell r="F5">
+            <v>21.58</v>
+          </cell>
+          <cell r="G5">
+            <v>1</v>
+          </cell>
+          <cell r="H5">
+            <v>13.76</v>
+          </cell>
+          <cell r="I5">
+            <v>12.73</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>l_4_50_4</v>
+          </cell>
+          <cell r="C6">
+            <v>728</v>
+          </cell>
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+          <cell r="E6">
+            <v>5.09</v>
+          </cell>
+          <cell r="F6">
+            <v>13.88</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
+          </cell>
+          <cell r="H6">
+            <v>5.24</v>
+          </cell>
+          <cell r="I6">
+            <v>9.68</v>
+          </cell>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>l_4_50_5</v>
+          </cell>
+          <cell r="C7">
+            <v>470</v>
+          </cell>
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+          <cell r="E7">
+            <v>6.26</v>
+          </cell>
+          <cell r="F7">
+            <v>13.8</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="H7">
+            <v>6.58</v>
+          </cell>
+          <cell r="I7">
+            <v>7.34</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>l_4_100_1</v>
+          </cell>
+          <cell r="C8">
+            <v>7332</v>
+          </cell>
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+          <cell r="E8">
+            <v>113.5</v>
+          </cell>
+          <cell r="F8">
+            <v>251.76</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>145.09</v>
+          </cell>
+          <cell r="I8">
+            <v>143.84</v>
+          </cell>
+          <cell r="J8">
+            <v>-0.13</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>l_4_100_2</v>
+          </cell>
+          <cell r="C9">
+            <v>21802</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>~</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>~</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
+          <cell r="H9">
+            <v>3135.85</v>
+          </cell>
+          <cell r="I9">
+            <v>843.25</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>l_4_100_3</v>
+          </cell>
+          <cell r="C10">
+            <v>3041</v>
+          </cell>
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+          <cell r="E10">
+            <v>123.9</v>
+          </cell>
+          <cell r="F10">
+            <v>230.77</v>
+          </cell>
+          <cell r="G10">
+            <v>1</v>
+          </cell>
+          <cell r="H10">
+            <v>194.13</v>
+          </cell>
+          <cell r="I10">
+            <v>96.1</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>l_4_100_4</v>
+          </cell>
+          <cell r="C11">
+            <v>18443</v>
+          </cell>
+          <cell r="D11">
+            <v>1</v>
+          </cell>
+          <cell r="E11">
+            <v>632.54999999999995</v>
+          </cell>
+          <cell r="F11">
+            <v>1166.6500000000001</v>
+          </cell>
+          <cell r="G11">
+            <v>1</v>
+          </cell>
+          <cell r="H11">
+            <v>1147.6300000000001</v>
+          </cell>
+          <cell r="I11">
+            <v>485.64</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>l_4_100_5</v>
+          </cell>
+          <cell r="C12">
+            <v>10126</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+          <cell r="E12">
+            <v>450.38</v>
+          </cell>
+          <cell r="F12">
+            <v>791.43</v>
+          </cell>
+          <cell r="G12">
+            <v>1</v>
+          </cell>
+          <cell r="H12">
+            <v>836.67</v>
+          </cell>
+          <cell r="I12">
+            <v>318.62</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>n_4_100_1</v>
+          </cell>
+          <cell r="C13">
+            <v>1052</v>
+          </cell>
+          <cell r="D13">
+            <v>1</v>
+          </cell>
+          <cell r="E13">
+            <v>0.44</v>
+          </cell>
+          <cell r="F13">
+            <v>6.13</v>
+          </cell>
+          <cell r="G13">
+            <v>1</v>
+          </cell>
+          <cell r="H13">
+            <v>0.44</v>
+          </cell>
+          <cell r="I13">
+            <v>6.62</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>n_4_100_2</v>
+          </cell>
+          <cell r="C14">
+            <v>4452</v>
+          </cell>
+          <cell r="D14">
+            <v>1</v>
+          </cell>
+          <cell r="E14">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="F14">
+            <v>62.44</v>
+          </cell>
+          <cell r="G14">
+            <v>1</v>
+          </cell>
+          <cell r="H14">
+            <v>21.72</v>
+          </cell>
+          <cell r="I14">
+            <v>49.66</v>
+          </cell>
+          <cell r="J14">
+            <v>-0.18</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>n_4_100_3</v>
+          </cell>
+          <cell r="C15">
+            <v>527</v>
+          </cell>
+          <cell r="D15">
+            <v>1</v>
+          </cell>
+          <cell r="E15">
+            <v>3.68</v>
+          </cell>
+          <cell r="F15">
+            <v>10.51</v>
+          </cell>
+          <cell r="G15">
+            <v>1</v>
+          </cell>
+          <cell r="H15">
+            <v>3.68</v>
+          </cell>
+          <cell r="I15">
+            <v>11.04</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>n_4_100_4</v>
+          </cell>
+          <cell r="C16">
+            <v>2323</v>
+          </cell>
+          <cell r="D16">
+            <v>1</v>
+          </cell>
+          <cell r="E16">
+            <v>2.25</v>
+          </cell>
+          <cell r="F16">
+            <v>15.06</v>
+          </cell>
+          <cell r="G16">
+            <v>1</v>
+          </cell>
+          <cell r="H16">
+            <v>2.27</v>
+          </cell>
+          <cell r="I16">
+            <v>17.18</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>n_4_100_5</v>
+          </cell>
+          <cell r="C17">
+            <v>1959</v>
+          </cell>
+          <cell r="D17">
+            <v>1</v>
+          </cell>
+          <cell r="E17">
+            <v>6.6</v>
+          </cell>
+          <cell r="F17">
+            <v>23.3</v>
+          </cell>
+          <cell r="G17">
+            <v>1</v>
+          </cell>
+          <cell r="H17">
+            <v>6.7</v>
+          </cell>
+          <cell r="I17">
+            <v>23.92</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>w_4_25_4</v>
+          </cell>
+          <cell r="C18">
+            <v>416</v>
+          </cell>
+          <cell r="D18">
+            <v>1</v>
+          </cell>
+          <cell r="E18">
+            <v>1.04</v>
+          </cell>
+          <cell r="F18">
+            <v>2.91</v>
+          </cell>
+          <cell r="G18">
+            <v>1</v>
+          </cell>
+          <cell r="H18">
+            <v>1.03</v>
+          </cell>
+          <cell r="I18">
+            <v>3.63</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>w_4_35_1</v>
+          </cell>
+          <cell r="C19">
+            <v>1639</v>
+          </cell>
+          <cell r="D19">
+            <v>1</v>
+          </cell>
+          <cell r="E19">
+            <v>7.42</v>
+          </cell>
+          <cell r="F19">
+            <v>19.38</v>
+          </cell>
+          <cell r="G19">
+            <v>1</v>
+          </cell>
+          <cell r="H19">
+            <v>7.6</v>
+          </cell>
+          <cell r="I19">
+            <v>9.73</v>
+          </cell>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>w_4_35_2</v>
+          </cell>
+          <cell r="C20">
+            <v>2807</v>
+          </cell>
+          <cell r="D20">
+            <v>1</v>
+          </cell>
+          <cell r="E20">
+            <v>18.37</v>
+          </cell>
+          <cell r="F20">
+            <v>41.18</v>
+          </cell>
+          <cell r="G20">
+            <v>1</v>
+          </cell>
+          <cell r="H20">
+            <v>20.37</v>
+          </cell>
+          <cell r="I20">
+            <v>14.48</v>
+          </cell>
+          <cell r="J20">
+            <v>-8.26</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>w_4_35_3</v>
+          </cell>
+          <cell r="C21">
+            <v>1196</v>
+          </cell>
+          <cell r="D21">
+            <v>1</v>
+          </cell>
+          <cell r="E21">
+            <v>15.92</v>
+          </cell>
+          <cell r="F21">
+            <v>32.35</v>
+          </cell>
+          <cell r="G21">
+            <v>1</v>
+          </cell>
+          <cell r="H21">
+            <v>23.64</v>
+          </cell>
+          <cell r="I21">
+            <v>13.22</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>w_4_35_4</v>
+          </cell>
+          <cell r="C22">
+            <v>1419</v>
+          </cell>
+          <cell r="D22">
+            <v>1</v>
+          </cell>
+          <cell r="E22">
+            <v>12.86</v>
+          </cell>
+          <cell r="F22">
+            <v>30.38</v>
+          </cell>
+          <cell r="G22">
+            <v>1</v>
+          </cell>
+          <cell r="H22">
+            <v>18.3</v>
+          </cell>
+          <cell r="I22">
+            <v>10.93</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>w_4_35_5</v>
+          </cell>
+          <cell r="C23">
+            <v>998</v>
+          </cell>
+          <cell r="D23">
+            <v>1</v>
+          </cell>
+          <cell r="E23">
+            <v>7.89</v>
+          </cell>
+          <cell r="F23">
+            <v>18.05</v>
+          </cell>
+          <cell r="G23">
+            <v>1</v>
+          </cell>
+          <cell r="H23">
+            <v>8.77</v>
+          </cell>
+          <cell r="I23">
+            <v>8.3000000000000007</v>
+          </cell>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>w_4_50_1</v>
+          </cell>
+          <cell r="C24">
+            <v>5341</v>
+          </cell>
+          <cell r="D24">
+            <v>1</v>
+          </cell>
+          <cell r="E24">
+            <v>53.15</v>
+          </cell>
+          <cell r="F24">
+            <v>114.16</v>
+          </cell>
+          <cell r="G24">
+            <v>1</v>
+          </cell>
+          <cell r="H24">
+            <v>58.31</v>
+          </cell>
+          <cell r="I24">
+            <v>43.31</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>w_4_50_2</v>
+          </cell>
+          <cell r="C25">
+            <v>6605</v>
+          </cell>
+          <cell r="D25">
+            <v>1</v>
+          </cell>
+          <cell r="E25">
+            <v>113.64</v>
+          </cell>
+          <cell r="F25">
+            <v>218.54</v>
+          </cell>
+          <cell r="G25">
+            <v>1</v>
+          </cell>
+          <cell r="H25">
+            <v>305.44</v>
+          </cell>
+          <cell r="I25">
+            <v>100.82</v>
+          </cell>
+          <cell r="J25">
+            <v>-0.37</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>w_4_50_3</v>
+          </cell>
+          <cell r="C26">
+            <v>3387</v>
+          </cell>
+          <cell r="D26">
+            <v>1</v>
+          </cell>
+          <cell r="E26">
+            <v>23.23</v>
+          </cell>
+          <cell r="F26">
+            <v>59.52</v>
+          </cell>
+          <cell r="G26">
+            <v>1</v>
+          </cell>
+          <cell r="H26">
+            <v>25.11</v>
+          </cell>
+          <cell r="I26">
+            <v>22.58</v>
+          </cell>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>w_4_50_4</v>
+          </cell>
+          <cell r="C27">
+            <v>18896</v>
+          </cell>
+          <cell r="D27">
+            <v>1</v>
+          </cell>
+          <cell r="E27">
+            <v>145.49</v>
+          </cell>
+          <cell r="F27">
+            <v>329.67</v>
+          </cell>
+          <cell r="G27">
+            <v>1</v>
+          </cell>
+          <cell r="H27">
+            <v>154.69</v>
+          </cell>
+          <cell r="I27">
+            <v>101.22</v>
+          </cell>
+          <cell r="J27">
+            <v>-0.38</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>w_4_50_5</v>
+          </cell>
+          <cell r="C28">
+            <v>5036</v>
+          </cell>
+          <cell r="D28">
+            <v>1</v>
+          </cell>
+          <cell r="E28">
+            <v>49.83</v>
+          </cell>
+          <cell r="F28">
+            <v>111.73</v>
+          </cell>
+          <cell r="G28">
+            <v>1</v>
+          </cell>
+          <cell r="H28">
+            <v>62.45</v>
+          </cell>
+          <cell r="I28">
+            <v>35.1</v>
+          </cell>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>w_4_100_3</v>
+          </cell>
+          <cell r="C29">
+            <v>66618</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>~</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>~</v>
+          </cell>
+          <cell r="G29">
+            <v>1</v>
+          </cell>
+          <cell r="H29">
+            <v>1251.8900000000001</v>
+          </cell>
+          <cell r="I29">
+            <v>1554.7</v>
+          </cell>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>w_8_50_3</v>
+          </cell>
+          <cell r="C30">
+            <v>418</v>
+          </cell>
+          <cell r="D30">
+            <v>1</v>
+          </cell>
+          <cell r="E30">
+            <v>3.48</v>
+          </cell>
+          <cell r="F30">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="G30">
+            <v>1</v>
+          </cell>
+          <cell r="H30">
+            <v>4.42</v>
+          </cell>
+          <cell r="I30">
+            <v>5.88</v>
+          </cell>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>w_8_50_5</v>
+          </cell>
+          <cell r="C31">
+            <v>472</v>
+          </cell>
+          <cell r="D31">
+            <v>1</v>
+          </cell>
+          <cell r="E31">
+            <v>4.42</v>
+          </cell>
+          <cell r="F31">
+            <v>9.74</v>
+          </cell>
+          <cell r="G31">
+            <v>1</v>
+          </cell>
+          <cell r="H31">
+            <v>4.72</v>
+          </cell>
+          <cell r="I31">
+            <v>6.99</v>
+          </cell>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>w_8_100_1</v>
+          </cell>
+          <cell r="C32">
+            <v>5099</v>
+          </cell>
+          <cell r="D32">
+            <v>1</v>
+          </cell>
+          <cell r="E32">
+            <v>89.35</v>
+          </cell>
+          <cell r="F32">
+            <v>187.07</v>
+          </cell>
+          <cell r="G32">
+            <v>1</v>
+          </cell>
+          <cell r="H32">
+            <v>119.82</v>
+          </cell>
+          <cell r="I32">
+            <v>132.19</v>
+          </cell>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>w_8_100_2</v>
+          </cell>
+          <cell r="C33">
+            <v>1254</v>
+          </cell>
+          <cell r="D33">
+            <v>1</v>
+          </cell>
+          <cell r="E33">
+            <v>20.02</v>
+          </cell>
+          <cell r="F33">
+            <v>43.25</v>
+          </cell>
+          <cell r="G33">
+            <v>1</v>
+          </cell>
+          <cell r="H33">
+            <v>26.07</v>
+          </cell>
+          <cell r="I33">
+            <v>30.49</v>
+          </cell>
+          <cell r="J33">
+            <v>-0.71</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>w_8_100_3</v>
+          </cell>
+          <cell r="C34">
+            <v>1797</v>
+          </cell>
+          <cell r="D34">
+            <v>1</v>
+          </cell>
+          <cell r="E34">
+            <v>23.19</v>
+          </cell>
+          <cell r="F34">
+            <v>53.42</v>
+          </cell>
+          <cell r="G34">
+            <v>1</v>
+          </cell>
+          <cell r="H34">
+            <v>30.13</v>
+          </cell>
+          <cell r="I34">
+            <v>50.26</v>
+          </cell>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>w_8_100_4</v>
+          </cell>
+          <cell r="C35">
+            <v>6819</v>
+          </cell>
+          <cell r="D35">
+            <v>1</v>
+          </cell>
+          <cell r="E35">
+            <v>87.83</v>
+          </cell>
+          <cell r="F35">
+            <v>188.59</v>
+          </cell>
+          <cell r="G35">
+            <v>1</v>
+          </cell>
+          <cell r="H35">
+            <v>106.94</v>
+          </cell>
+          <cell r="I35">
+            <v>164.88</v>
+          </cell>
+          <cell r="J35">
+            <v>-0.82</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>w_8_100_5</v>
+          </cell>
+          <cell r="C36">
+            <v>4797</v>
+          </cell>
+          <cell r="D36">
+            <v>1</v>
+          </cell>
+          <cell r="E36">
+            <v>79.709999999999994</v>
+          </cell>
+          <cell r="F36">
+            <v>167.79</v>
+          </cell>
+          <cell r="G36">
+            <v>1</v>
+          </cell>
+          <cell r="H36">
+            <v>105.14</v>
+          </cell>
+          <cell r="I36">
+            <v>106.49</v>
+          </cell>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>L_4_50</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>L_4_100</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>N_4_100</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>W_4_25</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>W_4_35</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>W_4_50</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>W_4_100</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>W_8_50</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>W_8_100</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17730,802 +18842,1413 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1392-DE26-414E-B79B-3A7FB0BD29BA}">
-  <dimension ref="B2:H36"/>
+  <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="J3" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" s="15">
+        <v>835</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>15.06</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>31.3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>21.54</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>11.45</v>
       </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" s="15">
+        <v>483</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>11.06</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>21.58</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>13.76</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12.73</v>
       </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" s="15">
+        <v>728</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>5.09</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>13.88</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>5.24</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9.68</v>
       </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" s="15">
+        <v>470</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>6.26</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>13.8</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>6.58</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.34</v>
       </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" s="15">
+        <v>7332</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>113.5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>251.76</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>145.09</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>143.84</v>
       </c>
+      <c r="J8" s="12">
+        <v>-0.13</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="15">
+        <v>21802</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>3135.85</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>843.25</v>
       </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" s="15">
+        <v>3041</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>123.9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>230.77</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>194.13</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>96.1</v>
       </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" s="15">
+        <v>18443</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>632.54999999999995</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>1166.6500000000001</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>1147.6300000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>485.64</v>
       </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" s="15">
+        <v>10126</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>450.38</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>791.43</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>836.67</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>318.62</v>
       </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" s="15">
+        <v>1052</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>0.44</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>6.13</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>0.44</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>6.62</v>
       </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" s="15">
+        <v>4452</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>19.989999999999998</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>62.44</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>21.72</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>49.66</v>
       </c>
+      <c r="J14" s="12">
+        <v>-0.18</v>
+      </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" s="15">
+        <v>527</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>3.68</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>10.51</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>3.68</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11.04</v>
       </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" s="15">
+        <v>2323</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>2.25</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>15.06</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>2.27</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>17.18</v>
       </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" s="15">
+        <v>1959</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>6.6</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>23.3</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>6.7</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>23.92</v>
       </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" s="15">
+        <v>416</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1.04</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>2.91</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>1.03</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3.63</v>
       </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" s="15">
+        <v>1639</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>7.42</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>19.38</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>7.6</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9.73</v>
       </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" s="15">
+        <v>2807</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>18.37</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>41.18</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>20.37</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>14.48</v>
       </c>
+      <c r="J20" s="12">
+        <v>-8.26</v>
+      </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" s="15">
+        <v>1196</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>15.92</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>32.35</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>23.64</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>13.22</v>
       </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" s="15">
+        <v>1419</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>12.86</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>30.38</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>18.3</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10.93</v>
       </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" s="15">
+        <v>998</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>7.89</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>18.05</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>8.77</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>8.3000000000000007</v>
       </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" s="15">
+        <v>5341</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>53.15</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>114.16</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>58.31</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>43.31</v>
       </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" s="15">
+        <v>6605</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>113.64</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>218.54</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>305.44</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>100.82</v>
       </c>
+      <c r="J25" s="12">
+        <v>-0.37</v>
+      </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" s="15">
+        <v>3387</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>23.23</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>59.52</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>25.11</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>22.58</v>
       </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="C27" s="15">
+        <v>18896</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>145.49</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>329.67</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>154.69</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>101.22</v>
       </c>
+      <c r="J27" s="12">
+        <v>-0.38</v>
+      </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="C28" s="15">
+        <v>5036</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>49.83</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>111.73</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>62.45</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>35.1</v>
       </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="15">
+        <v>66618</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>1251.8900000000001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1554.7</v>
       </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="C30" s="15">
+        <v>418</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>3.48</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>4.42</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5.88</v>
       </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="C31" s="15">
+        <v>472</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>4.42</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>9.74</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
       <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>4.72</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>6.99</v>
       </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="C32" s="15">
+        <v>5099</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>89.35</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>187.07</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>119.82</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>132.19</v>
       </c>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="C33" s="15">
+        <v>1254</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>20.02</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>43.25</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>26.07</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>30.49</v>
       </c>
+      <c r="J33" s="12">
+        <v>-0.71</v>
+      </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="C34" s="15">
+        <v>1797</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>23.19</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>53.42</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
       <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>30.13</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>50.26</v>
       </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="C35" s="15">
+        <v>6819</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>87.83</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>188.59</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
       <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>106.94</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>164.88</v>
       </c>
+      <c r="J35" s="12">
+        <v>-0.82</v>
+      </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="C36" s="15">
+        <v>4797</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>79.709999999999994</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>167.79</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>105.14</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>106.49</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B0D23-8985-4AC3-B17A-61652D187B2F}">
+  <dimension ref="B2:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="7"/>
+      <c r="D2" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>629</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>9.3674999999999997</v>
+      </c>
+      <c r="F4" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>20.139999999999997</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>11.78</v>
+      </c>
+      <c r="I4" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>10.3</v>
+      </c>
+      <c r="J4" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>12148.8</v>
+      </c>
+      <c r="D5" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>330.08249999999998</v>
+      </c>
+      <c r="F5" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>610.15250000000003</v>
+      </c>
+      <c r="G5" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>1091.8740000000003</v>
+      </c>
+      <c r="I5" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>377.48999999999995</v>
+      </c>
+      <c r="J5" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>-2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>2062.6</v>
+      </c>
+      <c r="D6" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>6.5920000000000005</v>
+      </c>
+      <c r="F6" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>23.488</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>6.9620000000000006</v>
+      </c>
+      <c r="I6" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>21.684000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>-3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>416</v>
+      </c>
+      <c r="D7" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>1.04</v>
+      </c>
+      <c r="F7" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>2.91</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>1.03</v>
+      </c>
+      <c r="I7" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>3.63</v>
+      </c>
+      <c r="J7" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>1611.8</v>
+      </c>
+      <c r="D8" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>12.492000000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>28.268000000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>15.735999999999999</v>
+      </c>
+      <c r="I8" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>11.331999999999999</v>
+      </c>
+      <c r="J8" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>-1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>7853</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>77.067999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>166.72399999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>121.2</v>
+      </c>
+      <c r="I9" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>60.605999999999995</v>
+      </c>
+      <c r="J9" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>66618</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>~</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>~</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>1251.8900000000001</v>
+      </c>
+      <c r="I10" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>1554.7</v>
+      </c>
+      <c r="J10" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>445</v>
+      </c>
+      <c r="D11" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>3.95</v>
+      </c>
+      <c r="F11" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>8.9699999999999989</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>4.57</v>
+      </c>
+      <c r="I11" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>6.4350000000000005</v>
+      </c>
+      <c r="J11" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="19">
+        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!C:C)</f>
+        <v>3953.2</v>
+      </c>
+      <c r="D12" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!E:E), "~")</f>
+        <v>60.019999999999996</v>
+      </c>
+      <c r="F12" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!F:F), "~")</f>
+        <v>128.024</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!H:H), "~")</f>
+        <v>77.61999999999999</v>
+      </c>
+      <c r="I12" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!I:I), "~")</f>
+        <v>96.861999999999995</v>
+      </c>
+      <c r="J12" s="7">
+        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!J:J), "~")</f>
+        <v>-0.30599999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Desktop\MATH3205_MPDPTW_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A5250-7A36-4F18-8B20-0D2E505F1100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B958FD-4256-43F8-87B7-12A3761B31F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="201">
   <si>
     <t>Instance</t>
   </si>
@@ -604,6 +604,51 @@
   <si>
     <t>Avg Columns Generated</t>
   </si>
+  <si>
+    <t>Col Gen Time(s)</t>
+  </si>
+  <si>
+    <t>Multi-Thread Time (s)</t>
+  </si>
+  <si>
+    <t>Columns Generated</t>
+  </si>
+  <si>
+    <t>l_4_100</t>
+  </si>
+  <si>
+    <t>l_4_50</t>
+  </si>
+  <si>
+    <t>n_4_100</t>
+  </si>
+  <si>
+    <t>w_4_25</t>
+  </si>
+  <si>
+    <t>w_4_35</t>
+  </si>
+  <si>
+    <t>w_4_50</t>
+  </si>
+  <si>
+    <t>w_8_100</t>
+  </si>
+  <si>
+    <t>w_8_50</t>
+  </si>
+  <si>
+    <t>Multi-Thread Time(s)</t>
+  </si>
+  <si>
+    <t>w_4_100</t>
+  </si>
+  <si>
+    <t>Avg. Columns Generated</t>
+  </si>
+  <si>
+    <t>Time Change (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -18842,10 +18887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1392-DE26-414E-B79B-3A7FB0BD29BA}">
-  <dimension ref="B2:J36"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18854,9 +18899,14 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D2" s="12" t="s">
         <v>181</v>
       </c>
@@ -18864,7 +18914,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -18892,8 +18942,23 @@
       <c r="J3" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P3" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
@@ -18921,8 +18986,23 @@
       <c r="J4" s="12">
         <v>0</v>
       </c>
+      <c r="L4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4">
+        <v>610.15</v>
+      </c>
+      <c r="N4">
+        <v>261.05</v>
+      </c>
+      <c r="O4">
+        <v>-57.32</v>
+      </c>
+      <c r="P4" s="2">
+        <v>9735.5</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
@@ -18950,8 +19030,23 @@
       <c r="J5" s="12">
         <v>0</v>
       </c>
+      <c r="L5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5">
+        <v>20.14</v>
+      </c>
+      <c r="N5">
+        <v>10.3</v>
+      </c>
+      <c r="O5">
+        <v>-48.96</v>
+      </c>
+      <c r="P5">
+        <v>629</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
@@ -18979,8 +19074,23 @@
       <c r="J6" s="12">
         <v>0</v>
       </c>
+      <c r="L6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6">
+        <v>23.49</v>
+      </c>
+      <c r="N6">
+        <v>21.68</v>
+      </c>
+      <c r="O6">
+        <v>-7.78</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2062.6</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
@@ -19008,8 +19118,23 @@
       <c r="J7" s="12">
         <v>0</v>
       </c>
+      <c r="L7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7">
+        <v>2.91</v>
+      </c>
+      <c r="N7">
+        <v>3.63</v>
+      </c>
+      <c r="O7">
+        <v>24.74</v>
+      </c>
+      <c r="P7">
+        <v>416</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
@@ -19037,8 +19162,23 @@
       <c r="J8" s="12">
         <v>-0.13</v>
       </c>
+      <c r="L8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8">
+        <v>28.27</v>
+      </c>
+      <c r="N8">
+        <v>11.33</v>
+      </c>
+      <c r="O8">
+        <v>-60.01</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1611.8</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
@@ -19066,8 +19206,23 @@
       <c r="J9" s="12">
         <v>0</v>
       </c>
+      <c r="L9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9">
+        <v>166.72</v>
+      </c>
+      <c r="N9">
+        <v>60.61</v>
+      </c>
+      <c r="O9">
+        <v>-63.75</v>
+      </c>
+      <c r="P9" s="3">
+        <v>7853</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
@@ -19095,8 +19250,23 @@
       <c r="J10" s="12">
         <v>0</v>
       </c>
+      <c r="L10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10">
+        <v>128.02000000000001</v>
+      </c>
+      <c r="N10">
+        <v>96.86</v>
+      </c>
+      <c r="O10">
+        <v>-24.44</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3953.2</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
@@ -19124,8 +19294,23 @@
       <c r="J11" s="12">
         <v>0</v>
       </c>
+      <c r="L11" t="s">
+        <v>196</v>
+      </c>
+      <c r="M11">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="N11">
+        <v>6.44</v>
+      </c>
+      <c r="O11">
+        <v>-28.36</v>
+      </c>
+      <c r="P11">
+        <v>445</v>
+      </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -19154,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>79</v>
       </c>
@@ -19183,7 +19368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>80</v>
       </c>
@@ -19211,8 +19396,17 @@
       <c r="J14" s="12">
         <v>-0.18</v>
       </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>81</v>
       </c>
@@ -19240,8 +19434,17 @@
       <c r="J15" s="12">
         <v>0</v>
       </c>
+      <c r="L15" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15">
+        <v>843.25</v>
+      </c>
+      <c r="N15" s="3">
+        <v>21802</v>
+      </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
@@ -19268,6 +19471,15 @@
       </c>
       <c r="J16" s="12">
         <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1554.7</v>
+      </c>
+      <c r="N16" s="3">
+        <v>66618</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
@@ -19859,7 +20071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B0D23-8985-4AC3-B17A-61652D187B2F}">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:J12"/>
     </sheetView>
   </sheetViews>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Desktop\MATH3205_MPDPTW_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B958FD-4256-43F8-87B7-12A3761B31F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99A584-8711-42C4-B5BB-94EB54701012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="3" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Col Gen vs Multi Thread" sheetId="3" r:id="rId3"/>
     <sheet name="Col Gen vs Multi Thread Av" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="201">
   <si>
     <t>Instance</t>
   </si>
@@ -823,1073 +820,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Raw Data"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Col &gt;= 400 Data"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>Col Gen</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>Multi Thread</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Instance</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Total Columns Generated</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Sts</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v xml:space="preserve">Work Units </v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Time_x000D_
-(s)</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>Sts</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v xml:space="preserve">Work Units </v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>Time_x000D_
-(s)</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>Col Gen Improvement on Ours (%)</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>l_4_50_2</v>
-          </cell>
-          <cell r="C4">
-            <v>835</v>
-          </cell>
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-          <cell r="E4">
-            <v>15.06</v>
-          </cell>
-          <cell r="F4">
-            <v>31.3</v>
-          </cell>
-          <cell r="G4">
-            <v>1</v>
-          </cell>
-          <cell r="H4">
-            <v>21.54</v>
-          </cell>
-          <cell r="I4">
-            <v>11.45</v>
-          </cell>
-          <cell r="J4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>l_4_50_3</v>
-          </cell>
-          <cell r="C5">
-            <v>483</v>
-          </cell>
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-          <cell r="E5">
-            <v>11.06</v>
-          </cell>
-          <cell r="F5">
-            <v>21.58</v>
-          </cell>
-          <cell r="G5">
-            <v>1</v>
-          </cell>
-          <cell r="H5">
-            <v>13.76</v>
-          </cell>
-          <cell r="I5">
-            <v>12.73</v>
-          </cell>
-          <cell r="J5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>l_4_50_4</v>
-          </cell>
-          <cell r="C6">
-            <v>728</v>
-          </cell>
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-          <cell r="E6">
-            <v>5.09</v>
-          </cell>
-          <cell r="F6">
-            <v>13.88</v>
-          </cell>
-          <cell r="G6">
-            <v>1</v>
-          </cell>
-          <cell r="H6">
-            <v>5.24</v>
-          </cell>
-          <cell r="I6">
-            <v>9.68</v>
-          </cell>
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>l_4_50_5</v>
-          </cell>
-          <cell r="C7">
-            <v>470</v>
-          </cell>
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-          <cell r="E7">
-            <v>6.26</v>
-          </cell>
-          <cell r="F7">
-            <v>13.8</v>
-          </cell>
-          <cell r="G7">
-            <v>1</v>
-          </cell>
-          <cell r="H7">
-            <v>6.58</v>
-          </cell>
-          <cell r="I7">
-            <v>7.34</v>
-          </cell>
-          <cell r="J7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>l_4_100_1</v>
-          </cell>
-          <cell r="C8">
-            <v>7332</v>
-          </cell>
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-          <cell r="E8">
-            <v>113.5</v>
-          </cell>
-          <cell r="F8">
-            <v>251.76</v>
-          </cell>
-          <cell r="G8">
-            <v>1</v>
-          </cell>
-          <cell r="H8">
-            <v>145.09</v>
-          </cell>
-          <cell r="I8">
-            <v>143.84</v>
-          </cell>
-          <cell r="J8">
-            <v>-0.13</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>l_4_100_2</v>
-          </cell>
-          <cell r="C9">
-            <v>21802</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>~</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>~</v>
-          </cell>
-          <cell r="G9">
-            <v>1</v>
-          </cell>
-          <cell r="H9">
-            <v>3135.85</v>
-          </cell>
-          <cell r="I9">
-            <v>843.25</v>
-          </cell>
-          <cell r="J9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>l_4_100_3</v>
-          </cell>
-          <cell r="C10">
-            <v>3041</v>
-          </cell>
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-          <cell r="E10">
-            <v>123.9</v>
-          </cell>
-          <cell r="F10">
-            <v>230.77</v>
-          </cell>
-          <cell r="G10">
-            <v>1</v>
-          </cell>
-          <cell r="H10">
-            <v>194.13</v>
-          </cell>
-          <cell r="I10">
-            <v>96.1</v>
-          </cell>
-          <cell r="J10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>l_4_100_4</v>
-          </cell>
-          <cell r="C11">
-            <v>18443</v>
-          </cell>
-          <cell r="D11">
-            <v>1</v>
-          </cell>
-          <cell r="E11">
-            <v>632.54999999999995</v>
-          </cell>
-          <cell r="F11">
-            <v>1166.6500000000001</v>
-          </cell>
-          <cell r="G11">
-            <v>1</v>
-          </cell>
-          <cell r="H11">
-            <v>1147.6300000000001</v>
-          </cell>
-          <cell r="I11">
-            <v>485.64</v>
-          </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>l_4_100_5</v>
-          </cell>
-          <cell r="C12">
-            <v>10126</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-          <cell r="E12">
-            <v>450.38</v>
-          </cell>
-          <cell r="F12">
-            <v>791.43</v>
-          </cell>
-          <cell r="G12">
-            <v>1</v>
-          </cell>
-          <cell r="H12">
-            <v>836.67</v>
-          </cell>
-          <cell r="I12">
-            <v>318.62</v>
-          </cell>
-          <cell r="J12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>n_4_100_1</v>
-          </cell>
-          <cell r="C13">
-            <v>1052</v>
-          </cell>
-          <cell r="D13">
-            <v>1</v>
-          </cell>
-          <cell r="E13">
-            <v>0.44</v>
-          </cell>
-          <cell r="F13">
-            <v>6.13</v>
-          </cell>
-          <cell r="G13">
-            <v>1</v>
-          </cell>
-          <cell r="H13">
-            <v>0.44</v>
-          </cell>
-          <cell r="I13">
-            <v>6.62</v>
-          </cell>
-          <cell r="J13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>n_4_100_2</v>
-          </cell>
-          <cell r="C14">
-            <v>4452</v>
-          </cell>
-          <cell r="D14">
-            <v>1</v>
-          </cell>
-          <cell r="E14">
-            <v>19.989999999999998</v>
-          </cell>
-          <cell r="F14">
-            <v>62.44</v>
-          </cell>
-          <cell r="G14">
-            <v>1</v>
-          </cell>
-          <cell r="H14">
-            <v>21.72</v>
-          </cell>
-          <cell r="I14">
-            <v>49.66</v>
-          </cell>
-          <cell r="J14">
-            <v>-0.18</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>n_4_100_3</v>
-          </cell>
-          <cell r="C15">
-            <v>527</v>
-          </cell>
-          <cell r="D15">
-            <v>1</v>
-          </cell>
-          <cell r="E15">
-            <v>3.68</v>
-          </cell>
-          <cell r="F15">
-            <v>10.51</v>
-          </cell>
-          <cell r="G15">
-            <v>1</v>
-          </cell>
-          <cell r="H15">
-            <v>3.68</v>
-          </cell>
-          <cell r="I15">
-            <v>11.04</v>
-          </cell>
-          <cell r="J15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>n_4_100_4</v>
-          </cell>
-          <cell r="C16">
-            <v>2323</v>
-          </cell>
-          <cell r="D16">
-            <v>1</v>
-          </cell>
-          <cell r="E16">
-            <v>2.25</v>
-          </cell>
-          <cell r="F16">
-            <v>15.06</v>
-          </cell>
-          <cell r="G16">
-            <v>1</v>
-          </cell>
-          <cell r="H16">
-            <v>2.27</v>
-          </cell>
-          <cell r="I16">
-            <v>17.18</v>
-          </cell>
-          <cell r="J16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>n_4_100_5</v>
-          </cell>
-          <cell r="C17">
-            <v>1959</v>
-          </cell>
-          <cell r="D17">
-            <v>1</v>
-          </cell>
-          <cell r="E17">
-            <v>6.6</v>
-          </cell>
-          <cell r="F17">
-            <v>23.3</v>
-          </cell>
-          <cell r="G17">
-            <v>1</v>
-          </cell>
-          <cell r="H17">
-            <v>6.7</v>
-          </cell>
-          <cell r="I17">
-            <v>23.92</v>
-          </cell>
-          <cell r="J17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>w_4_25_4</v>
-          </cell>
-          <cell r="C18">
-            <v>416</v>
-          </cell>
-          <cell r="D18">
-            <v>1</v>
-          </cell>
-          <cell r="E18">
-            <v>1.04</v>
-          </cell>
-          <cell r="F18">
-            <v>2.91</v>
-          </cell>
-          <cell r="G18">
-            <v>1</v>
-          </cell>
-          <cell r="H18">
-            <v>1.03</v>
-          </cell>
-          <cell r="I18">
-            <v>3.63</v>
-          </cell>
-          <cell r="J18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>w_4_35_1</v>
-          </cell>
-          <cell r="C19">
-            <v>1639</v>
-          </cell>
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-          <cell r="E19">
-            <v>7.42</v>
-          </cell>
-          <cell r="F19">
-            <v>19.38</v>
-          </cell>
-          <cell r="G19">
-            <v>1</v>
-          </cell>
-          <cell r="H19">
-            <v>7.6</v>
-          </cell>
-          <cell r="I19">
-            <v>9.73</v>
-          </cell>
-          <cell r="J19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>w_4_35_2</v>
-          </cell>
-          <cell r="C20">
-            <v>2807</v>
-          </cell>
-          <cell r="D20">
-            <v>1</v>
-          </cell>
-          <cell r="E20">
-            <v>18.37</v>
-          </cell>
-          <cell r="F20">
-            <v>41.18</v>
-          </cell>
-          <cell r="G20">
-            <v>1</v>
-          </cell>
-          <cell r="H20">
-            <v>20.37</v>
-          </cell>
-          <cell r="I20">
-            <v>14.48</v>
-          </cell>
-          <cell r="J20">
-            <v>-8.26</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>w_4_35_3</v>
-          </cell>
-          <cell r="C21">
-            <v>1196</v>
-          </cell>
-          <cell r="D21">
-            <v>1</v>
-          </cell>
-          <cell r="E21">
-            <v>15.92</v>
-          </cell>
-          <cell r="F21">
-            <v>32.35</v>
-          </cell>
-          <cell r="G21">
-            <v>1</v>
-          </cell>
-          <cell r="H21">
-            <v>23.64</v>
-          </cell>
-          <cell r="I21">
-            <v>13.22</v>
-          </cell>
-          <cell r="J21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>w_4_35_4</v>
-          </cell>
-          <cell r="C22">
-            <v>1419</v>
-          </cell>
-          <cell r="D22">
-            <v>1</v>
-          </cell>
-          <cell r="E22">
-            <v>12.86</v>
-          </cell>
-          <cell r="F22">
-            <v>30.38</v>
-          </cell>
-          <cell r="G22">
-            <v>1</v>
-          </cell>
-          <cell r="H22">
-            <v>18.3</v>
-          </cell>
-          <cell r="I22">
-            <v>10.93</v>
-          </cell>
-          <cell r="J22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>w_4_35_5</v>
-          </cell>
-          <cell r="C23">
-            <v>998</v>
-          </cell>
-          <cell r="D23">
-            <v>1</v>
-          </cell>
-          <cell r="E23">
-            <v>7.89</v>
-          </cell>
-          <cell r="F23">
-            <v>18.05</v>
-          </cell>
-          <cell r="G23">
-            <v>1</v>
-          </cell>
-          <cell r="H23">
-            <v>8.77</v>
-          </cell>
-          <cell r="I23">
-            <v>8.3000000000000007</v>
-          </cell>
-          <cell r="J23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>w_4_50_1</v>
-          </cell>
-          <cell r="C24">
-            <v>5341</v>
-          </cell>
-          <cell r="D24">
-            <v>1</v>
-          </cell>
-          <cell r="E24">
-            <v>53.15</v>
-          </cell>
-          <cell r="F24">
-            <v>114.16</v>
-          </cell>
-          <cell r="G24">
-            <v>1</v>
-          </cell>
-          <cell r="H24">
-            <v>58.31</v>
-          </cell>
-          <cell r="I24">
-            <v>43.31</v>
-          </cell>
-          <cell r="J24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>w_4_50_2</v>
-          </cell>
-          <cell r="C25">
-            <v>6605</v>
-          </cell>
-          <cell r="D25">
-            <v>1</v>
-          </cell>
-          <cell r="E25">
-            <v>113.64</v>
-          </cell>
-          <cell r="F25">
-            <v>218.54</v>
-          </cell>
-          <cell r="G25">
-            <v>1</v>
-          </cell>
-          <cell r="H25">
-            <v>305.44</v>
-          </cell>
-          <cell r="I25">
-            <v>100.82</v>
-          </cell>
-          <cell r="J25">
-            <v>-0.37</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>w_4_50_3</v>
-          </cell>
-          <cell r="C26">
-            <v>3387</v>
-          </cell>
-          <cell r="D26">
-            <v>1</v>
-          </cell>
-          <cell r="E26">
-            <v>23.23</v>
-          </cell>
-          <cell r="F26">
-            <v>59.52</v>
-          </cell>
-          <cell r="G26">
-            <v>1</v>
-          </cell>
-          <cell r="H26">
-            <v>25.11</v>
-          </cell>
-          <cell r="I26">
-            <v>22.58</v>
-          </cell>
-          <cell r="J26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>w_4_50_4</v>
-          </cell>
-          <cell r="C27">
-            <v>18896</v>
-          </cell>
-          <cell r="D27">
-            <v>1</v>
-          </cell>
-          <cell r="E27">
-            <v>145.49</v>
-          </cell>
-          <cell r="F27">
-            <v>329.67</v>
-          </cell>
-          <cell r="G27">
-            <v>1</v>
-          </cell>
-          <cell r="H27">
-            <v>154.69</v>
-          </cell>
-          <cell r="I27">
-            <v>101.22</v>
-          </cell>
-          <cell r="J27">
-            <v>-0.38</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>w_4_50_5</v>
-          </cell>
-          <cell r="C28">
-            <v>5036</v>
-          </cell>
-          <cell r="D28">
-            <v>1</v>
-          </cell>
-          <cell r="E28">
-            <v>49.83</v>
-          </cell>
-          <cell r="F28">
-            <v>111.73</v>
-          </cell>
-          <cell r="G28">
-            <v>1</v>
-          </cell>
-          <cell r="H28">
-            <v>62.45</v>
-          </cell>
-          <cell r="I28">
-            <v>35.1</v>
-          </cell>
-          <cell r="J28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>w_4_100_3</v>
-          </cell>
-          <cell r="C29">
-            <v>66618</v>
-          </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>~</v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>~</v>
-          </cell>
-          <cell r="G29">
-            <v>1</v>
-          </cell>
-          <cell r="H29">
-            <v>1251.8900000000001</v>
-          </cell>
-          <cell r="I29">
-            <v>1554.7</v>
-          </cell>
-          <cell r="J29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>w_8_50_3</v>
-          </cell>
-          <cell r="C30">
-            <v>418</v>
-          </cell>
-          <cell r="D30">
-            <v>1</v>
-          </cell>
-          <cell r="E30">
-            <v>3.48</v>
-          </cell>
-          <cell r="F30">
-            <v>8.1999999999999993</v>
-          </cell>
-          <cell r="G30">
-            <v>1</v>
-          </cell>
-          <cell r="H30">
-            <v>4.42</v>
-          </cell>
-          <cell r="I30">
-            <v>5.88</v>
-          </cell>
-          <cell r="J30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>w_8_50_5</v>
-          </cell>
-          <cell r="C31">
-            <v>472</v>
-          </cell>
-          <cell r="D31">
-            <v>1</v>
-          </cell>
-          <cell r="E31">
-            <v>4.42</v>
-          </cell>
-          <cell r="F31">
-            <v>9.74</v>
-          </cell>
-          <cell r="G31">
-            <v>1</v>
-          </cell>
-          <cell r="H31">
-            <v>4.72</v>
-          </cell>
-          <cell r="I31">
-            <v>6.99</v>
-          </cell>
-          <cell r="J31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>w_8_100_1</v>
-          </cell>
-          <cell r="C32">
-            <v>5099</v>
-          </cell>
-          <cell r="D32">
-            <v>1</v>
-          </cell>
-          <cell r="E32">
-            <v>89.35</v>
-          </cell>
-          <cell r="F32">
-            <v>187.07</v>
-          </cell>
-          <cell r="G32">
-            <v>1</v>
-          </cell>
-          <cell r="H32">
-            <v>119.82</v>
-          </cell>
-          <cell r="I32">
-            <v>132.19</v>
-          </cell>
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>w_8_100_2</v>
-          </cell>
-          <cell r="C33">
-            <v>1254</v>
-          </cell>
-          <cell r="D33">
-            <v>1</v>
-          </cell>
-          <cell r="E33">
-            <v>20.02</v>
-          </cell>
-          <cell r="F33">
-            <v>43.25</v>
-          </cell>
-          <cell r="G33">
-            <v>1</v>
-          </cell>
-          <cell r="H33">
-            <v>26.07</v>
-          </cell>
-          <cell r="I33">
-            <v>30.49</v>
-          </cell>
-          <cell r="J33">
-            <v>-0.71</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>w_8_100_3</v>
-          </cell>
-          <cell r="C34">
-            <v>1797</v>
-          </cell>
-          <cell r="D34">
-            <v>1</v>
-          </cell>
-          <cell r="E34">
-            <v>23.19</v>
-          </cell>
-          <cell r="F34">
-            <v>53.42</v>
-          </cell>
-          <cell r="G34">
-            <v>1</v>
-          </cell>
-          <cell r="H34">
-            <v>30.13</v>
-          </cell>
-          <cell r="I34">
-            <v>50.26</v>
-          </cell>
-          <cell r="J34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>w_8_100_4</v>
-          </cell>
-          <cell r="C35">
-            <v>6819</v>
-          </cell>
-          <cell r="D35">
-            <v>1</v>
-          </cell>
-          <cell r="E35">
-            <v>87.83</v>
-          </cell>
-          <cell r="F35">
-            <v>188.59</v>
-          </cell>
-          <cell r="G35">
-            <v>1</v>
-          </cell>
-          <cell r="H35">
-            <v>106.94</v>
-          </cell>
-          <cell r="I35">
-            <v>164.88</v>
-          </cell>
-          <cell r="J35">
-            <v>-0.82</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>w_8_100_5</v>
-          </cell>
-          <cell r="C36">
-            <v>4797</v>
-          </cell>
-          <cell r="D36">
-            <v>1</v>
-          </cell>
-          <cell r="E36">
-            <v>79.709999999999994</v>
-          </cell>
-          <cell r="F36">
-            <v>167.79</v>
-          </cell>
-          <cell r="G36">
-            <v>1</v>
-          </cell>
-          <cell r="H36">
-            <v>105.14</v>
-          </cell>
-          <cell r="I36">
-            <v>106.49</v>
-          </cell>
-          <cell r="J36">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>L_4_50</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>L_4_100</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>N_4_100</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>W_4_25</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>W_4_35</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>W_4_50</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>W_4_100</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>W_8_50</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>W_8_100</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18889,7 +17819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1392-DE26-414E-B79B-3A7FB0BD29BA}">
   <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -20071,8 +19001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B0D23-8985-4AC3-B17A-61652D187B2F}">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20135,35 +19065,27 @@
         <v>153</v>
       </c>
       <c r="C4" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>629</v>
       </c>
       <c r="D4" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!D:D)</f>
         <v>4</v>
       </c>
       <c r="E4" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!E:E), "~")</f>
         <v>9.3674999999999997</v>
       </c>
       <c r="F4" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!F:F), "~")</f>
         <v>20.139999999999997</v>
       </c>
       <c r="G4" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>4</v>
       </c>
       <c r="H4" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>11.78</v>
       </c>
       <c r="I4" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>10.3</v>
       </c>
       <c r="J4" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B4 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>0</v>
       </c>
     </row>
@@ -20172,35 +19094,27 @@
         <v>154</v>
       </c>
       <c r="C5" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>12148.8</v>
       </c>
       <c r="D5" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!D:D)</f>
         <v>4</v>
       </c>
       <c r="E5" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!E:E), "~")</f>
         <v>330.08249999999998</v>
       </c>
       <c r="F5" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!F:F), "~")</f>
         <v>610.15250000000003</v>
       </c>
       <c r="G5" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>5</v>
       </c>
       <c r="H5" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>1091.8740000000003</v>
       </c>
       <c r="I5" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>377.48999999999995</v>
       </c>
       <c r="J5" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B5 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>-2.6000000000000002E-2</v>
       </c>
     </row>
@@ -20209,35 +19123,27 @@
         <v>162</v>
       </c>
       <c r="C6" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>2062.6</v>
       </c>
       <c r="D6" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!D:D)</f>
         <v>5</v>
       </c>
       <c r="E6" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!E:E), "~")</f>
         <v>6.5920000000000005</v>
       </c>
       <c r="F6" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!F:F), "~")</f>
         <v>23.488</v>
       </c>
       <c r="G6" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>5</v>
       </c>
       <c r="H6" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>6.9620000000000006</v>
       </c>
       <c r="I6" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>21.684000000000001</v>
       </c>
       <c r="J6" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B6 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
@@ -20246,35 +19152,27 @@
         <v>167</v>
       </c>
       <c r="C7" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>416</v>
       </c>
       <c r="D7" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!D:D)</f>
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!E:E), "~")</f>
         <v>1.04</v>
       </c>
       <c r="F7" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!F:F), "~")</f>
         <v>2.91</v>
       </c>
       <c r="G7" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>1.03</v>
       </c>
       <c r="I7" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>3.63</v>
       </c>
       <c r="J7" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B7 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>0</v>
       </c>
     </row>
@@ -20283,35 +19181,27 @@
         <v>168</v>
       </c>
       <c r="C8" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>1611.8</v>
       </c>
       <c r="D8" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!D:D)</f>
         <v>5</v>
       </c>
       <c r="E8" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!E:E), "~")</f>
         <v>12.492000000000001</v>
       </c>
       <c r="F8" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!F:F), "~")</f>
         <v>28.268000000000001</v>
       </c>
       <c r="G8" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>5</v>
       </c>
       <c r="H8" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>15.735999999999999</v>
       </c>
       <c r="I8" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>11.331999999999999</v>
       </c>
       <c r="J8" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B8 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>-1.6519999999999999</v>
       </c>
     </row>
@@ -20320,35 +19210,27 @@
         <v>169</v>
       </c>
       <c r="C9" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>7853</v>
       </c>
       <c r="D9" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!D:D)</f>
         <v>5</v>
       </c>
       <c r="E9" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!E:E), "~")</f>
         <v>77.067999999999998</v>
       </c>
       <c r="F9" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!F:F), "~")</f>
         <v>166.72399999999999</v>
       </c>
       <c r="G9" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>5</v>
       </c>
       <c r="H9" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>121.2</v>
       </c>
       <c r="I9" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>60.605999999999995</v>
       </c>
       <c r="J9" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B9 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>-0.15</v>
       </c>
     </row>
@@ -20357,35 +19239,27 @@
         <v>170</v>
       </c>
       <c r="C10" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>66618</v>
       </c>
       <c r="D10" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="str">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!E:E), "~")</f>
-        <v>~</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!F:F), "~")</f>
-        <v>~</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G10" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>1</v>
       </c>
       <c r="H10" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>1251.8900000000001</v>
       </c>
       <c r="I10" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>1554.7</v>
       </c>
       <c r="J10" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B10 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>0</v>
       </c>
     </row>
@@ -20394,35 +19268,27 @@
         <v>173</v>
       </c>
       <c r="C11" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>445</v>
       </c>
       <c r="D11" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!D:D)</f>
         <v>2</v>
       </c>
       <c r="E11" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!E:E), "~")</f>
         <v>3.95</v>
       </c>
       <c r="F11" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!F:F), "~")</f>
         <v>8.9699999999999989</v>
       </c>
       <c r="G11" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>4.57</v>
       </c>
       <c r="I11" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>6.4350000000000005</v>
       </c>
       <c r="J11" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B11 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>0</v>
       </c>
     </row>
@@ -20431,35 +19297,27 @@
         <v>174</v>
       </c>
       <c r="C12" s="19">
-        <f>AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!C:C)</f>
         <v>3953.2</v>
       </c>
       <c r="D12" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!D:D)</f>
         <v>5</v>
       </c>
       <c r="E12" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!E:E), "~")</f>
         <v>60.019999999999996</v>
       </c>
       <c r="F12" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!F:F), "~")</f>
         <v>128.024</v>
       </c>
       <c r="G12" s="7">
-        <f>SUMIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!G:G)</f>
         <v>5</v>
       </c>
       <c r="H12" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!H:H), "~")</f>
         <v>77.61999999999999</v>
       </c>
       <c r="I12" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!I:I), "~")</f>
         <v>96.861999999999995</v>
       </c>
       <c r="J12" s="7">
-        <f>IFERROR(AVERAGEIF([1]Sheet5!$B:$B, [1]Sheet1!$B12 &amp; "_*", [1]Sheet5!J:J), "~")</f>
         <v>-0.30599999999999994</v>
       </c>
     </row>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Desktop\MATH3205_MPDPTW_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99A584-8711-42C4-B5BB-94EB54701012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAA223-B8CB-4E5E-855D-87E72977D989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="3" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -602,9 +602,6 @@
     <t>Avg Columns Generated</t>
   </si>
   <si>
-    <t>Col Gen Time(s)</t>
-  </si>
-  <si>
     <t>Multi-Thread Time (s)</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>Time Change (%)</t>
+  </si>
+  <si>
+    <t>Col Gen Time (s)</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -804,6 +804,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120FBBEE-5035-451F-8043-D98BBCB1ED6E}">
   <dimension ref="B2:AP123"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16328,7 +16331,7 @@
   <dimension ref="C2:T29"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17820,7 +17823,7 @@
   <dimension ref="B2:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17858,7 +17861,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>6</v>
@@ -17867,7 +17870,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>22</v>
@@ -17876,16 +17879,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" t="s">
         <v>186</v>
       </c>
-      <c r="N3" t="s">
-        <v>187</v>
-      </c>
       <c r="O3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
@@ -17917,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M4">
         <v>610.15</v>
@@ -17961,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M5">
         <v>20.14</v>
@@ -18005,7 +18008,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M6">
         <v>23.49</v>
@@ -18049,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M7">
         <v>2.91</v>
@@ -18093,7 +18096,7 @@
         <v>-0.13</v>
       </c>
       <c r="L8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M8">
         <v>28.27</v>
@@ -18137,7 +18140,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M9">
         <v>166.72</v>
@@ -18181,7 +18184,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10">
         <v>128.02000000000001</v>
@@ -18225,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M11">
         <v>8.9700000000000006</v>
@@ -18330,10 +18333,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.35">
@@ -18365,7 +18368,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M15">
         <v>843.25</v>
@@ -18403,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M16" s="2">
         <v>1554.7</v>
@@ -19001,8 +19004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B0D23-8985-4AC3-B17A-61652D187B2F}">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19044,8 +19047,8 @@
       <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
+      <c r="F3" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>175</v>
@@ -19054,7 +19057,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>22</v>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Desktop\MATH3205_MPDPTW_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAA223-B8CB-4E5E-855D-87E72977D989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BDB6F-70E5-424E-A792-670E89B78CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="200">
   <si>
     <t>Instance</t>
   </si>
@@ -615,9 +615,6 @@
   </si>
   <si>
     <t>n_4_100</t>
-  </si>
-  <si>
-    <t>w_4_25</t>
   </si>
   <si>
     <t>w_4_35</t>
@@ -1144,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120FBBEE-5035-451F-8043-D98BBCB1ED6E}">
   <dimension ref="B2:AP123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -17822,8 +17819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1392-DE26-414E-B79B-3A7FB0BD29BA}">
   <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17879,16 +17876,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N3" t="s">
         <v>186</v>
       </c>
       <c r="O3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
@@ -18055,16 +18052,16 @@
         <v>191</v>
       </c>
       <c r="M7">
-        <v>2.91</v>
+        <v>28.27</v>
       </c>
       <c r="N7">
-        <v>3.63</v>
+        <v>11.33</v>
       </c>
       <c r="O7">
-        <v>24.74</v>
-      </c>
-      <c r="P7">
-        <v>416</v>
+        <v>-60.01</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1611.8</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
@@ -18099,16 +18096,16 @@
         <v>192</v>
       </c>
       <c r="M8">
-        <v>28.27</v>
+        <v>166.72</v>
       </c>
       <c r="N8">
-        <v>11.33</v>
+        <v>60.61</v>
       </c>
       <c r="O8">
-        <v>-60.01</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1611.8</v>
+        <v>-63.75</v>
+      </c>
+      <c r="P8" s="3">
+        <v>7853</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.35">
@@ -18143,16 +18140,16 @@
         <v>193</v>
       </c>
       <c r="M9">
-        <v>166.72</v>
+        <v>128.02000000000001</v>
       </c>
       <c r="N9">
-        <v>60.61</v>
+        <v>96.86</v>
       </c>
       <c r="O9">
-        <v>-63.75</v>
-      </c>
-      <c r="P9" s="3">
-        <v>7853</v>
+        <v>-24.44</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3953.2</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.35">
@@ -18187,16 +18184,16 @@
         <v>194</v>
       </c>
       <c r="M10">
-        <v>128.02000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="N10">
-        <v>96.86</v>
+        <v>6.44</v>
       </c>
       <c r="O10">
-        <v>-24.44</v>
-      </c>
-      <c r="P10" s="2">
-        <v>3953.2</v>
+        <v>-28.36</v>
+      </c>
+      <c r="P10">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
@@ -18227,21 +18224,6 @@
       <c r="J11" s="12">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
-        <v>195</v>
-      </c>
-      <c r="M11">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="N11">
-        <v>6.44</v>
-      </c>
-      <c r="O11">
-        <v>-28.36</v>
-      </c>
-      <c r="P11">
-        <v>445</v>
-      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
@@ -18333,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N14" t="s">
         <v>187</v>
@@ -18406,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M16" s="2">
         <v>1554.7</v>
@@ -19005,7 +18987,7 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/Math3205 Project Formulation Comparison.xlsx
+++ b/docs/Math3205 Project Formulation Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Desktop\MATH3205_MPDPTW_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BDB6F-70E5-424E-A792-670E89B78CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9A804-EEDD-4CC9-AC4A-EE1CA68F7654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{ABF29F5B-52A4-4B51-B67D-12561389EC32}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="199">
   <si>
     <t>Instance</t>
   </si>
@@ -630,9 +630,6 @@
   </si>
   <si>
     <t>Multi-Thread Time(s)</t>
-  </si>
-  <si>
-    <t>w_4_100</t>
   </si>
   <si>
     <t>Avg. Columns Generated</t>
@@ -17819,8 +17816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1392-DE26-414E-B79B-3A7FB0BD29BA}">
   <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:P10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17829,7 +17826,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -17876,16 +17873,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N3" t="s">
         <v>186</v>
       </c>
       <c r="O3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
@@ -18350,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="M15">
         <v>843.25</v>
@@ -18388,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="M16" s="2">
         <v>1554.7</v>
